--- a/budget-web-tests/testData/Budget_Anonymous_AU.xlsx
+++ b/budget-web-tests/testData/Budget_Anonymous_AU.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10409"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/StatusNeo/Documents/untitled folder 3/ecom-us-web/budget-web-tests/testData/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBDFFA0C-B294-1B40-B4BB-2606D7BC8BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="22368" windowHeight="9215"/>
   </bookViews>
   <sheets>
     <sheet name="Budget US Anonymous" sheetId="1" r:id="rId1"/>
@@ -21,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="100">
   <si>
     <t>TestMethodName</t>
   </si>
@@ -212,6 +206,12 @@
     <t>PickUplocation1</t>
   </si>
   <si>
+    <t>CreditCardType</t>
+  </si>
+  <si>
+    <t>AnonymousUserTestCases</t>
+  </si>
+  <si>
     <t>Budget_Reservation_Domestic_Anonymous_PayLater_AU</t>
   </si>
   <si>
@@ -248,10 +248,61 @@
     <t>Budget_Reservation_Outbound_PayLater_AU</t>
   </si>
   <si>
-    <t>AnonymousUserTestCases</t>
-  </si>
-  <si>
     <t>Budget_Reservation_Domestic_PayNow_AU</t>
+  </si>
+  <si>
+    <t>PayNow</t>
+  </si>
+  <si>
+    <t>342000000000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">701 West </t>
+  </si>
+  <si>
+    <t>St</t>
+  </si>
+  <si>
+    <t>0123141G</t>
+  </si>
+  <si>
+    <t>New South Wales</t>
+  </si>
+  <si>
+    <t>Delta</t>
+  </si>
+  <si>
+    <t>Budget_Reservation_Inbound_PayNow_AU</t>
+  </si>
+  <si>
+    <t>Budget_Reservation_Outbound_PayNow_AU</t>
+  </si>
+  <si>
+    <t>Visa</t>
+  </si>
+  <si>
+    <t>Budget_Reservation_TtypeCoupon_PayLater_AU</t>
+  </si>
+  <si>
+    <t>LAS</t>
+  </si>
+  <si>
+    <t>MUZZ012</t>
+  </si>
+  <si>
+    <t>Budget_Reservation_MtypeCoupon_PayLater_AU</t>
+  </si>
+  <si>
+    <t>Budget_Reservation_UtypeCoupon_PayLater_AU</t>
+  </si>
+  <si>
+    <t>UUZZ006</t>
+  </si>
+  <si>
+    <t>Budget_Reservation_GtypeCoupon_PayLater_AU</t>
+  </si>
+  <si>
+    <t>Budget_Reservation_AWDorBCD_PayLater_AU</t>
   </si>
   <si>
     <t>username</t>
@@ -269,12 +320,16 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="0;[Red]0"/>
-    <numFmt numFmtId="169" formatCode="dd/mm/yyyy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="181" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -303,21 +358,351 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -325,50 +710,345 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -626,33 +1306,35 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BK29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:BL29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="24.83203125" customWidth="1"/>
+    <col min="1" max="1" width="24.8333333333333" customWidth="1"/>
     <col min="2" max="2" width="64.5" customWidth="1"/>
-    <col min="22" max="22" width="11.1640625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="16.33203125" customWidth="1"/>
+    <col min="8" max="8" width="11.1111111111111"/>
+    <col min="10" max="10" width="12.5555555555556" customWidth="1"/>
+    <col min="22" max="22" width="11.1666666666667" style="1" customWidth="1"/>
+    <col min="23" max="23" width="16.3333333333333" customWidth="1"/>
     <col min="24" max="24" width="12.5" customWidth="1"/>
-    <col min="25" max="25" width="8.6640625" customWidth="1"/>
-    <col min="33" max="33" width="13.1640625" customWidth="1"/>
-    <col min="49" max="49" width="15.33203125" customWidth="1"/>
+    <col min="25" max="25" width="8.66666666666667" customWidth="1"/>
+    <col min="33" max="33" width="13.1666666666667" customWidth="1"/>
+    <col min="49" max="49" width="15.3333333333333" customWidth="1"/>
     <col min="50" max="50" width="15.5" customWidth="1"/>
     <col min="51" max="51" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" ht="15.6" spans="1:64">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -668,7 +1350,7 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
@@ -818,16 +1500,16 @@
       <c r="BC1" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BD1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BE1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BF1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BG1" s="3" t="s">
         <v>58</v>
       </c>
       <c r="BH1" s="2" t="s">
@@ -839,870 +1521,2126 @@
       <c r="BJ1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BK1" s="3" t="s">
         <v>62</v>
       </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="2" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" t="s">
-        <v>63</v>
+    <row r="2" spans="1:64">
+      <c r="A2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="G2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="O2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="P2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="R2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="S2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="T2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="U2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V2" s="1">
         <v>9838234567</v>
       </c>
       <c r="W2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="X2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Y2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Z2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AA2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AB2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AC2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AD2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AE2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AF2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AG2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AH2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AI2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AJ2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AK2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AL2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AM2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AN2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AO2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AP2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AQ2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AR2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AS2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AT2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AU2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AV2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AW2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AX2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AY2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AZ2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="BA2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="BB2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="BC2" t="s">
-        <v>65</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>65</v>
-      </c>
-      <c r="BE2" t="s">
+        <v>67</v>
+      </c>
+      <c r="BD2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="BE2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BF2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BG2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BH2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="BI2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="BJ2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>67</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:64">
+      <c r="A3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K3" t="s">
+        <v>67</v>
+      </c>
+      <c r="L3" t="s">
+        <v>67</v>
+      </c>
+      <c r="M3" t="s">
+        <v>67</v>
+      </c>
+      <c r="N3" t="s">
+        <v>67</v>
+      </c>
+      <c r="O3" t="s">
+        <v>67</v>
+      </c>
+      <c r="P3" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>67</v>
+      </c>
+      <c r="R3" t="s">
+        <v>69</v>
+      </c>
+      <c r="S3" t="s">
+        <v>70</v>
+      </c>
+      <c r="T3" t="s">
         <v>71</v>
       </c>
-      <c r="BF2" t="s">
-        <v>71</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>71</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>65</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>65</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>65</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="U3" t="s">
         <v>72</v>
-      </c>
-      <c r="C3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G3" t="s">
-        <v>73</v>
-      </c>
-      <c r="H3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K3" t="s">
-        <v>65</v>
-      </c>
-      <c r="L3" t="s">
-        <v>65</v>
-      </c>
-      <c r="M3" t="s">
-        <v>65</v>
-      </c>
-      <c r="N3" t="s">
-        <v>65</v>
-      </c>
-      <c r="O3" t="s">
-        <v>65</v>
-      </c>
-      <c r="P3" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>65</v>
-      </c>
-      <c r="R3" t="s">
-        <v>67</v>
-      </c>
-      <c r="S3" t="s">
-        <v>68</v>
-      </c>
-      <c r="T3" t="s">
-        <v>69</v>
-      </c>
-      <c r="U3" t="s">
-        <v>70</v>
       </c>
       <c r="V3" s="1">
         <v>9838234567</v>
       </c>
       <c r="W3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="X3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Y3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Z3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AA3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AB3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AC3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AD3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AE3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AF3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AG3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AH3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AI3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AJ3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AK3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AL3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AM3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AN3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AO3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AP3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AQ3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AR3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AS3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AT3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AU3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AV3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AW3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AX3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AY3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AZ3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="BA3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="BB3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="BC3" t="s">
-        <v>65</v>
-      </c>
-      <c r="BD3" t="s">
-        <v>65</v>
-      </c>
-      <c r="BE3" t="s">
+        <v>67</v>
+      </c>
+      <c r="BD3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="BE3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BF3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BG3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BH3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="BI3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="BJ3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>67</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:64">
+      <c r="A4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="s">
+        <v>67</v>
+      </c>
+      <c r="N4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O4" t="s">
+        <v>67</v>
+      </c>
+      <c r="P4" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>67</v>
+      </c>
+      <c r="R4" t="s">
+        <v>69</v>
+      </c>
+      <c r="S4" t="s">
+        <v>70</v>
+      </c>
+      <c r="T4" t="s">
         <v>71</v>
       </c>
-      <c r="BF3" t="s">
-        <v>71</v>
-      </c>
-      <c r="BG3" t="s">
-        <v>71</v>
-      </c>
-      <c r="BH3" t="s">
-        <v>65</v>
-      </c>
-      <c r="BI3" t="s">
-        <v>65</v>
-      </c>
-      <c r="BJ3" t="s">
-        <v>65</v>
-      </c>
-      <c r="BK3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H4" t="s">
-        <v>65</v>
-      </c>
-      <c r="I4" t="s">
-        <v>65</v>
-      </c>
-      <c r="J4" t="s">
-        <v>65</v>
-      </c>
-      <c r="K4" t="s">
-        <v>65</v>
-      </c>
-      <c r="L4" t="s">
-        <v>65</v>
-      </c>
-      <c r="M4" t="s">
-        <v>65</v>
-      </c>
-      <c r="N4" t="s">
-        <v>65</v>
-      </c>
-      <c r="O4" t="s">
-        <v>65</v>
-      </c>
-      <c r="P4" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>65</v>
-      </c>
-      <c r="R4" t="s">
-        <v>67</v>
-      </c>
-      <c r="S4" t="s">
-        <v>68</v>
-      </c>
-      <c r="T4" t="s">
-        <v>69</v>
-      </c>
       <c r="U4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V4" s="1">
         <v>9838234567</v>
       </c>
       <c r="W4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="X4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Y4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Z4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AA4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AB4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AC4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AD4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AE4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AF4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AG4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AH4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AI4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AJ4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AK4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AL4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AM4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AN4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AO4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AP4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AQ4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AR4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AS4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AT4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AU4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AV4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AW4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AX4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AY4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AZ4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="BA4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="BB4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="BC4" t="s">
-        <v>65</v>
-      </c>
-      <c r="BD4" t="s">
-        <v>65</v>
-      </c>
-      <c r="BE4" t="s">
+        <v>67</v>
+      </c>
+      <c r="BD4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="BE4" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BF4" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BG4" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BH4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="BI4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="BJ4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>67</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:64">
+      <c r="A5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" s="5">
+        <v>45090</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" s="5">
+        <v>45100</v>
+      </c>
+      <c r="K5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L5" t="s">
+        <v>67</v>
+      </c>
+      <c r="M5" t="s">
+        <v>67</v>
+      </c>
+      <c r="N5" t="s">
+        <v>67</v>
+      </c>
+      <c r="O5" t="s">
+        <v>67</v>
+      </c>
+      <c r="P5" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>67</v>
+      </c>
+      <c r="R5" t="s">
+        <v>78</v>
+      </c>
+      <c r="S5" t="s">
+        <v>70</v>
+      </c>
+      <c r="T5" t="s">
         <v>71</v>
       </c>
-      <c r="BF4" t="s">
-        <v>71</v>
-      </c>
-      <c r="BG4" t="s">
-        <v>71</v>
-      </c>
-      <c r="BH4" t="s">
-        <v>65</v>
-      </c>
-      <c r="BI4" t="s">
-        <v>65</v>
-      </c>
-      <c r="BJ4" t="s">
-        <v>65</v>
-      </c>
-      <c r="BK4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G5" t="s">
-        <v>65</v>
-      </c>
-      <c r="H5" t="s">
-        <v>65</v>
-      </c>
-      <c r="I5" t="s">
-        <v>65</v>
-      </c>
-      <c r="J5" t="s">
-        <v>65</v>
-      </c>
-      <c r="K5" t="s">
-        <v>65</v>
-      </c>
-      <c r="L5" t="s">
-        <v>65</v>
-      </c>
-      <c r="M5" t="s">
-        <v>65</v>
-      </c>
-      <c r="N5" t="s">
-        <v>65</v>
-      </c>
-      <c r="O5" t="s">
-        <v>65</v>
-      </c>
-      <c r="P5" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>65</v>
-      </c>
-      <c r="R5" t="s">
-        <v>67</v>
-      </c>
-      <c r="S5" t="s">
-        <v>68</v>
-      </c>
-      <c r="T5" t="s">
-        <v>69</v>
-      </c>
       <c r="U5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V5" s="1">
         <v>9838234567</v>
       </c>
-      <c r="W5" t="s">
-        <v>65</v>
-      </c>
-      <c r="X5" t="s">
-        <v>65</v>
+      <c r="W5" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="X5">
+        <v>1129</v>
       </c>
       <c r="Y5" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="Z5" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="AA5" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>65</v>
+        <v>82</v>
+      </c>
+      <c r="AB5">
+        <v>123</v>
       </c>
       <c r="AC5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AD5" t="s">
-        <v>65</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>65</v>
+        <v>83</v>
+      </c>
+      <c r="AE5">
+        <v>6000</v>
       </c>
       <c r="AF5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AG5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AH5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AI5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AJ5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AK5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AL5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AM5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AN5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AO5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AP5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AQ5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AR5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AS5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AT5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AU5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AV5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AW5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AX5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AY5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AZ5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="BA5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="BB5" t="s">
-        <v>65</v>
-      </c>
-      <c r="BC5" t="s">
-        <v>65</v>
-      </c>
-      <c r="BD5" t="s">
-        <v>65</v>
-      </c>
-      <c r="BE5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC5">
+        <v>2323</v>
+      </c>
+      <c r="BD5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="BE5" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BF5" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BG5" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BH5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="BI5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="BJ5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>67</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:64">
+      <c r="A6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H6" s="5">
+        <v>45090</v>
+      </c>
+      <c r="I6" t="s">
+        <v>67</v>
+      </c>
+      <c r="J6" s="5">
+        <v>45100</v>
+      </c>
+      <c r="K6" t="s">
+        <v>67</v>
+      </c>
+      <c r="L6" t="s">
+        <v>67</v>
+      </c>
+      <c r="M6" t="s">
+        <v>67</v>
+      </c>
+      <c r="N6" t="s">
+        <v>67</v>
+      </c>
+      <c r="O6" t="s">
+        <v>67</v>
+      </c>
+      <c r="P6" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>67</v>
+      </c>
+      <c r="R6" t="s">
+        <v>78</v>
+      </c>
+      <c r="S6" t="s">
+        <v>70</v>
+      </c>
+      <c r="T6" t="s">
         <v>71</v>
       </c>
-      <c r="BF5" t="s">
+      <c r="U6" t="s">
+        <v>72</v>
+      </c>
+      <c r="V6" s="1">
+        <v>9838234567</v>
+      </c>
+      <c r="W6" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="X6">
+        <v>1129</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB6">
+        <v>123</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>67</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>67</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC6">
+        <v>2323</v>
+      </c>
+      <c r="BD6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="BE6" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BF6" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BG6" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BH6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="BI6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="BJ6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="BK6" t="s">
+        <v>67</v>
+      </c>
+      <c r="BL6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:64">
+      <c r="A7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="5">
+        <v>45090</v>
+      </c>
+      <c r="I7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7" s="5">
+        <v>45100</v>
+      </c>
+      <c r="K7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L7" t="s">
+        <v>67</v>
+      </c>
+      <c r="M7" t="s">
+        <v>67</v>
+      </c>
+      <c r="N7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>67</v>
+      </c>
+      <c r="R7" t="s">
+        <v>78</v>
+      </c>
+      <c r="S7" t="s">
+        <v>70</v>
+      </c>
+      <c r="T7" t="s">
         <v>71</v>
       </c>
-      <c r="BG5" t="s">
+      <c r="U7" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="V7" s="1">
+        <v>9838234567</v>
+      </c>
+      <c r="W7" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="X7">
+        <v>1129</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB7">
+        <v>123</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>83</v>
+      </c>
+      <c r="AE7">
+        <v>6000</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>67</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>67</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC7">
+        <v>2323</v>
+      </c>
+      <c r="BD7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="BE7" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BF7" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BG7" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BH7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="BI7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="BJ7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>67</v>
+      </c>
+      <c r="BL7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:64">
+      <c r="A8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" s="5">
+        <v>45090</v>
+      </c>
+      <c r="I8" t="s">
+        <v>67</v>
+      </c>
+      <c r="J8" s="5">
+        <v>45100</v>
+      </c>
+      <c r="K8" t="s">
+        <v>67</v>
+      </c>
+      <c r="L8" t="s">
+        <v>67</v>
+      </c>
+      <c r="M8" t="s">
+        <v>90</v>
+      </c>
+      <c r="N8" t="s">
+        <v>67</v>
+      </c>
+      <c r="O8" t="s">
+        <v>67</v>
+      </c>
+      <c r="P8" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>67</v>
+      </c>
+      <c r="R8" t="s">
+        <v>69</v>
+      </c>
+      <c r="S8" t="s">
+        <v>70</v>
+      </c>
+      <c r="T8" t="s">
         <v>71</v>
       </c>
-      <c r="BH5" t="s">
-        <v>65</v>
-      </c>
-      <c r="BI5" t="s">
-        <v>65</v>
-      </c>
-      <c r="BJ5" t="s">
-        <v>65</v>
-      </c>
-      <c r="BK5" t="s">
-        <v>65</v>
+      <c r="U8" t="s">
+        <v>72</v>
+      </c>
+      <c r="V8" s="1">
+        <v>9838234567</v>
+      </c>
+      <c r="W8" t="s">
+        <v>67</v>
+      </c>
+      <c r="X8" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>67</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>67</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>67</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>67</v>
+      </c>
+      <c r="BD8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="BE8" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BF8" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BG8" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BH8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="BI8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="BJ8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="BK8" t="s">
+        <v>67</v>
+      </c>
+      <c r="BL8" t="s">
+        <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="F6" s="3"/>
-      <c r="W6" s="6"/>
+    <row r="9" spans="1:64">
+      <c r="A9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="5">
+        <v>45090</v>
+      </c>
+      <c r="I9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J9" s="5">
+        <v>45100</v>
+      </c>
+      <c r="K9" t="s">
+        <v>67</v>
+      </c>
+      <c r="L9" t="s">
+        <v>67</v>
+      </c>
+      <c r="M9" t="s">
+        <v>90</v>
+      </c>
+      <c r="N9" t="s">
+        <v>67</v>
+      </c>
+      <c r="O9" t="s">
+        <v>67</v>
+      </c>
+      <c r="P9" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>67</v>
+      </c>
+      <c r="R9" t="s">
+        <v>69</v>
+      </c>
+      <c r="S9" t="s">
+        <v>70</v>
+      </c>
+      <c r="T9" t="s">
+        <v>71</v>
+      </c>
+      <c r="U9" t="s">
+        <v>72</v>
+      </c>
+      <c r="V9" s="1">
+        <v>9838234567</v>
+      </c>
+      <c r="W9" t="s">
+        <v>67</v>
+      </c>
+      <c r="X9" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>67</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>67</v>
+      </c>
+      <c r="BB9" t="s">
+        <v>67</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>67</v>
+      </c>
+      <c r="BD9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="BE9" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BF9" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BG9" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BH9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="BI9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="BJ9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="BK9" t="s">
+        <v>67</v>
+      </c>
+      <c r="BL9" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="7" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="F7" s="3"/>
-      <c r="W7" s="6"/>
+    <row r="10" spans="1:64">
+      <c r="A10" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G10" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" s="5">
+        <v>45090</v>
+      </c>
+      <c r="I10" t="s">
+        <v>67</v>
+      </c>
+      <c r="J10" s="5">
+        <v>45100</v>
+      </c>
+      <c r="K10" t="s">
+        <v>67</v>
+      </c>
+      <c r="L10" t="s">
+        <v>67</v>
+      </c>
+      <c r="M10" t="s">
+        <v>93</v>
+      </c>
+      <c r="N10" t="s">
+        <v>67</v>
+      </c>
+      <c r="O10" t="s">
+        <v>67</v>
+      </c>
+      <c r="P10" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>67</v>
+      </c>
+      <c r="R10" t="s">
+        <v>69</v>
+      </c>
+      <c r="S10" t="s">
+        <v>70</v>
+      </c>
+      <c r="T10" t="s">
+        <v>71</v>
+      </c>
+      <c r="U10" t="s">
+        <v>72</v>
+      </c>
+      <c r="V10" s="1">
+        <v>9838234567</v>
+      </c>
+      <c r="W10" t="s">
+        <v>67</v>
+      </c>
+      <c r="X10" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AZ10" t="s">
+        <v>67</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>67</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>67</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>67</v>
+      </c>
+      <c r="BD10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="BE10" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BF10" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BG10" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BH10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="BI10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="BJ10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="BK10" t="s">
+        <v>67</v>
+      </c>
+      <c r="BL10" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="8" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="F8" s="3"/>
+    <row r="11" spans="1:64">
+      <c r="A11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G11" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" s="5">
+        <v>45090</v>
+      </c>
+      <c r="I11" t="s">
+        <v>67</v>
+      </c>
+      <c r="J11" s="5">
+        <v>45100</v>
+      </c>
+      <c r="K11" t="s">
+        <v>67</v>
+      </c>
+      <c r="L11" t="s">
+        <v>67</v>
+      </c>
+      <c r="M11" t="s">
+        <v>93</v>
+      </c>
+      <c r="N11" t="s">
+        <v>67</v>
+      </c>
+      <c r="O11" t="s">
+        <v>67</v>
+      </c>
+      <c r="P11" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>67</v>
+      </c>
+      <c r="R11" t="s">
+        <v>69</v>
+      </c>
+      <c r="S11" t="s">
+        <v>70</v>
+      </c>
+      <c r="T11" t="s">
+        <v>71</v>
+      </c>
+      <c r="U11" t="s">
+        <v>72</v>
+      </c>
+      <c r="V11" s="1">
+        <v>9838234567</v>
+      </c>
+      <c r="W11" t="s">
+        <v>67</v>
+      </c>
+      <c r="X11" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AY11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>67</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>67</v>
+      </c>
+      <c r="BB11" t="s">
+        <v>67</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>67</v>
+      </c>
+      <c r="BD11" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="BE11" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BF11" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BG11" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BH11" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="BI11" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="BJ11" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="BK11" t="s">
+        <v>67</v>
+      </c>
+      <c r="BL11" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="9" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="F9" s="3"/>
+    <row r="12" spans="1:62">
+      <c r="A12" s="3"/>
+      <c r="B12" t="s">
+        <v>95</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="AG12" s="9"/>
+      <c r="BD12" s="3"/>
+      <c r="BE12" s="3"/>
+      <c r="BF12" s="3"/>
+      <c r="BG12" s="3"/>
+      <c r="BH12" s="3"/>
+      <c r="BI12" s="3"/>
+      <c r="BJ12" s="3"/>
     </row>
-    <row r="10" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="F10" s="3"/>
+    <row r="13" spans="1:62">
+      <c r="A13" s="3"/>
+      <c r="F13" s="4"/>
+      <c r="BD13" s="3"/>
+      <c r="BE13" s="3"/>
+      <c r="BF13" s="3"/>
+      <c r="BG13" s="3"/>
+      <c r="BH13" s="3"/>
+      <c r="BI13" s="3"/>
+      <c r="BJ13" s="3"/>
     </row>
-    <row r="11" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="F11" s="3"/>
+    <row r="14" spans="1:63">
+      <c r="A14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="F14" s="4"/>
+      <c r="H14" s="5"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="8"/>
+      <c r="BD14" s="3"/>
+      <c r="BE14" s="3"/>
+      <c r="BF14" s="3"/>
+      <c r="BG14" s="3"/>
+      <c r="BH14" s="3"/>
+      <c r="BI14" s="3"/>
+      <c r="BJ14" s="3"/>
+      <c r="BK14" s="4"/>
     </row>
-    <row r="12" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="F12" s="3"/>
-      <c r="AG12" s="7"/>
+    <row r="15" spans="1:62">
+      <c r="A15" s="3"/>
+      <c r="F15" s="4"/>
+      <c r="H15" s="5"/>
+      <c r="BD15" s="3"/>
+      <c r="BE15" s="3"/>
+      <c r="BF15" s="3"/>
+      <c r="BG15" s="3"/>
+      <c r="BH15" s="3"/>
+      <c r="BI15" s="3"/>
+      <c r="BJ15" s="3"/>
     </row>
-    <row r="13" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="F13" s="3"/>
+    <row r="16" ht="15" spans="1:62">
+      <c r="A16" s="3"/>
+      <c r="F16" s="4"/>
+      <c r="BB16" s="10"/>
+      <c r="BD16" s="3"/>
+      <c r="BE16" s="3"/>
+      <c r="BF16" s="3"/>
+      <c r="BG16" s="3"/>
+      <c r="BH16" s="3"/>
+      <c r="BI16" s="3"/>
+      <c r="BJ16" s="3"/>
     </row>
-    <row r="14" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="F14" s="3"/>
-      <c r="H14" s="4"/>
-      <c r="BK14" s="3"/>
+    <row r="17" spans="1:62">
+      <c r="A17" s="3"/>
+      <c r="F17" s="4"/>
+      <c r="BD17" s="3"/>
+      <c r="BE17" s="3"/>
+      <c r="BF17" s="3"/>
+      <c r="BG17" s="3"/>
+      <c r="BH17" s="3"/>
+      <c r="BI17" s="3"/>
+      <c r="BJ17" s="3"/>
     </row>
-    <row r="15" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="F15" s="3"/>
-      <c r="H15" s="4"/>
+    <row r="18" spans="1:62">
+      <c r="A18" s="3"/>
+      <c r="F18" s="4"/>
+      <c r="H18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="M18" s="6"/>
+      <c r="BD18" s="3"/>
+      <c r="BE18" s="3"/>
+      <c r="BF18" s="3"/>
+      <c r="BG18" s="3"/>
+      <c r="BH18" s="3"/>
+      <c r="BI18" s="3"/>
+      <c r="BJ18" s="3"/>
     </row>
-    <row r="16" spans="1:63" ht="16" x14ac:dyDescent="0.2">
-      <c r="F16" s="3"/>
-      <c r="BB16" s="8"/>
+    <row r="19" spans="1:62">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="F19" s="4"/>
+      <c r="BD19" s="3"/>
+      <c r="BE19" s="3"/>
+      <c r="BF19" s="3"/>
+      <c r="BG19" s="3"/>
+      <c r="BH19" s="3"/>
+      <c r="BI19" s="3"/>
+      <c r="BJ19" s="3"/>
     </row>
-    <row r="17" spans="6:22" x14ac:dyDescent="0.2">
-      <c r="F17" s="3"/>
+    <row r="20" spans="1:62">
+      <c r="A20" s="3"/>
+      <c r="F20" s="4"/>
+      <c r="BD20" s="3"/>
+      <c r="BE20" s="3"/>
+      <c r="BF20" s="3"/>
+      <c r="BG20" s="3"/>
+      <c r="BH20" s="3"/>
+      <c r="BI20" s="3"/>
+      <c r="BJ20" s="3"/>
     </row>
-    <row r="18" spans="6:22" x14ac:dyDescent="0.2">
-      <c r="F18" s="3"/>
-      <c r="M18" s="5"/>
+    <row r="21" spans="1:62">
+      <c r="A21" s="3"/>
+      <c r="F21" s="4"/>
+      <c r="BD21" s="3"/>
+      <c r="BE21" s="3"/>
+      <c r="BF21" s="3"/>
+      <c r="BG21" s="3"/>
+      <c r="BH21" s="3"/>
+      <c r="BI21" s="3"/>
+      <c r="BJ21" s="3"/>
     </row>
-    <row r="19" spans="6:22" x14ac:dyDescent="0.2">
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="6:22" x14ac:dyDescent="0.2">
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="6:22" x14ac:dyDescent="0.2">
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="22:22">
       <c r="V22"/>
     </row>
-    <row r="23" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="22:22">
       <c r="V23"/>
     </row>
-    <row r="24" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="22:22">
       <c r="V24"/>
     </row>
-    <row r="25" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="22:22">
       <c r="V25"/>
     </row>
-    <row r="26" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="26" spans="22:22">
       <c r="V26"/>
     </row>
-    <row r="27" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="22:22">
       <c r="V27"/>
     </row>
-    <row r="28" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="22:22">
       <c r="V28"/>
     </row>
-    <row r="29" spans="6:22" x14ac:dyDescent="0.2">
+    <row r="29" spans="22:22">
       <c r="V29"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="U7" r:id="rId1" display="automation@yopmail.com" tooltip="mailto:automation@yopmail.com"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:BA2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <sheetData>
-    <row r="1" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:53">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1713,10 +3651,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="E1" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
@@ -1863,165 +3801,166 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:53">
       <c r="B2" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F2" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="G2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="O2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="P2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="R2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="S2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="T2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="U2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V2">
         <v>9838234567</v>
       </c>
       <c r="W2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="X2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Y2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Z2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AA2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AB2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AC2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AD2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AE2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AF2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AG2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AH2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AI2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AJ2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AK2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AL2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AM2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AN2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AO2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AP2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AQ2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AR2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AS2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AT2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AU2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AV2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AW2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AX2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AY2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AZ2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="BA2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/budget-web-tests/testData/Budget_Anonymous_AU.xlsx
+++ b/budget-web-tests/testData/Budget_Anonymous_AU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/StatusNeo/Desktop/Budget_Payless 27 Apr/ecom-us-web/budget-web-tests/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EBA6697-FE29-B347-B500-55926B286D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA839B3-9894-8D4B-8AE8-3555D6B0A1D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1451" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="122">
   <si>
     <t>TestMethodName</t>
   </si>
@@ -396,21 +396,37 @@
       <t xml:space="preserve"> </t>
     </r>
   </si>
+  <si>
+    <t>UpliftMobile</t>
+  </si>
+  <si>
+    <t>UpliftBirthDate</t>
+  </si>
+  <si>
+    <t>Paynow</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0;[Red]0"/>
-    <numFmt numFmtId="169" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="164" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -491,7 +507,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -499,40 +515,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="11" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -810,10 +828,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BO29"/>
+  <dimension ref="A1:BR29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:A21"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="Y25" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -830,9 +848,13 @@
     <col min="49" max="49" width="15.33203125" customWidth="1"/>
     <col min="50" max="50" width="15.5" customWidth="1"/>
     <col min="51" max="51" width="16" customWidth="1"/>
+    <col min="64" max="64" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="8" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="21.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:70" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1025,17 +1047,26 @@
       <c r="BL1" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="13" t="s">
+      <c r="BM1" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="BN1" s="13" t="s">
+      <c r="BN1" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="BO1" s="12" t="s">
+      <c r="BO1" s="11" t="s">
         <v>101</v>
       </c>
+      <c r="BP1" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="BQ1" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="BR1" s="13" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="2" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -1237,8 +1268,17 @@
       <c r="BO2" t="s">
         <v>67</v>
       </c>
+      <c r="BP2" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="3" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>64</v>
       </c>
@@ -1440,8 +1480,17 @@
       <c r="BO3" t="s">
         <v>67</v>
       </c>
+      <c r="BP3" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="4" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>64</v>
       </c>
@@ -1643,8 +1692,17 @@
       <c r="BO4" t="s">
         <v>67</v>
       </c>
+      <c r="BP4" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="5" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>64</v>
       </c>
@@ -1846,8 +1904,17 @@
       <c r="BO5" t="s">
         <v>67</v>
       </c>
+      <c r="BP5" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="6" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -2049,8 +2116,17 @@
       <c r="BO6" t="s">
         <v>67</v>
       </c>
+      <c r="BP6" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ6" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR6" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="7" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>64</v>
       </c>
@@ -2252,8 +2328,17 @@
       <c r="BO7" t="s">
         <v>67</v>
       </c>
+      <c r="BP7" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ7" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR7" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="8" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>64</v>
       </c>
@@ -2455,8 +2540,17 @@
       <c r="BO8" t="s">
         <v>67</v>
       </c>
+      <c r="BP8" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ8" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR8" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="9" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>64</v>
       </c>
@@ -2658,8 +2752,17 @@
       <c r="BO9" t="s">
         <v>67</v>
       </c>
+      <c r="BP9" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ9" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR9" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="10" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>64</v>
       </c>
@@ -2861,8 +2964,17 @@
       <c r="BO10" t="s">
         <v>67</v>
       </c>
+      <c r="BP10" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ10" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR10" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="11" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>64</v>
       </c>
@@ -3064,8 +3176,17 @@
       <c r="BO11" t="s">
         <v>67</v>
       </c>
+      <c r="BP11" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ11" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR11" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="12" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>64</v>
       </c>
@@ -3267,8 +3388,17 @@
       <c r="BO12" t="s">
         <v>67</v>
       </c>
+      <c r="BP12" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ12" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR12" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="13" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>64</v>
       </c>
@@ -3470,8 +3600,17 @@
       <c r="BO13" t="s">
         <v>67</v>
       </c>
+      <c r="BP13" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ13" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR13" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="14" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>64</v>
       </c>
@@ -3673,8 +3812,17 @@
       <c r="BO14" t="s">
         <v>67</v>
       </c>
+      <c r="BP14" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ14" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR14" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="15" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -3876,8 +4024,17 @@
       <c r="BO15" t="s">
         <v>67</v>
       </c>
+      <c r="BP15" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ15" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR15" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="16" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>64</v>
       </c>
@@ -4079,8 +4236,17 @@
       <c r="BO16" t="s">
         <v>67</v>
       </c>
+      <c r="BP16" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ16" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR16" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="17" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>64</v>
       </c>
@@ -4282,8 +4448,17 @@
       <c r="BO17" t="s">
         <v>67</v>
       </c>
+      <c r="BP17" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ17" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR17" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="18" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>64</v>
       </c>
@@ -4485,8 +4660,17 @@
       <c r="BO18" t="s">
         <v>73</v>
       </c>
+      <c r="BP18" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ18" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR18" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="19" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>64</v>
       </c>
@@ -4688,8 +4872,17 @@
       <c r="BO19" t="s">
         <v>73</v>
       </c>
+      <c r="BP19" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ19" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR19" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="20" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>64</v>
       </c>
@@ -4891,8 +5084,17 @@
       <c r="BO20" s="3" t="s">
         <v>67</v>
       </c>
+      <c r="BP20" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ20" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR20" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="21" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>64</v>
       </c>
@@ -4959,8 +5161,8 @@
       <c r="V21" s="10">
         <v>9838234567</v>
       </c>
-      <c r="W21" s="11">
-        <v>342000000000000</v>
+      <c r="W21" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="X21" s="10">
         <v>1129</v>
@@ -5094,29 +5296,38 @@
       <c r="BO21" s="3" t="s">
         <v>67</v>
       </c>
+      <c r="BP21" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ21" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR21" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="22" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:70" x14ac:dyDescent="0.2">
       <c r="V22"/>
     </row>
-    <row r="23" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:70" x14ac:dyDescent="0.2">
       <c r="V23"/>
     </row>
-    <row r="24" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:70" x14ac:dyDescent="0.2">
       <c r="V24"/>
     </row>
-    <row r="25" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:70" x14ac:dyDescent="0.2">
       <c r="V25"/>
     </row>
-    <row r="26" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:70" x14ac:dyDescent="0.2">
       <c r="V26"/>
     </row>
-    <row r="27" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:70" x14ac:dyDescent="0.2">
       <c r="V27"/>
     </row>
-    <row r="28" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:70" x14ac:dyDescent="0.2">
       <c r="V28"/>
     </row>
-    <row r="29" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:70" x14ac:dyDescent="0.2">
       <c r="V29"/>
     </row>
   </sheetData>

--- a/budget-web-tests/testData/Budget_Anonymous_AU.xlsx
+++ b/budget-web-tests/testData/Budget_Anonymous_AU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/StatusNeo/Desktop/Budget_Payless 27 Apr/ecom-us-web/budget-web-tests/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA839B3-9894-8D4B-8AE8-3555D6B0A1D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F4DFFDD-179B-7348-8AEF-87A1E2ABC716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="121">
   <si>
     <t>TestMethodName</t>
   </si>
@@ -258,9 +258,6 @@
   </si>
   <si>
     <t>PayNow</t>
-  </si>
-  <si>
-    <t>342000000000000</t>
   </si>
   <si>
     <t xml:space="preserve">701 West </t>
@@ -533,9 +530,6 @@
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -551,6 +545,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -830,8 +827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BR29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Y25" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1047,27 +1044,27 @@
       <c r="BL1" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="12" t="s">
+      <c r="BM1" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="BN1" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="BN1" s="12" t="s">
+      <c r="BO1" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="BO1" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="BP1" s="13" t="s">
+      <c r="BP1" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="BQ1" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="BQ1" s="13" t="s">
+      <c r="BR1" s="12" t="s">
         <v>120</v>
-      </c>
-      <c r="BR1" s="13" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="10" t="s">
         <v>64</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1227,10 +1224,10 @@
         <v>67</v>
       </c>
       <c r="BB2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="BC2" s="3" t="s">
-        <v>67</v>
+        <v>83</v>
+      </c>
+      <c r="BC2" s="3">
+        <v>2323</v>
       </c>
       <c r="BD2" s="3" t="s">
         <v>67</v>
@@ -1279,7 +1276,7 @@
       </c>
     </row>
     <row r="3" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="10" t="s">
         <v>64</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1439,10 +1436,10 @@
         <v>67</v>
       </c>
       <c r="BB3" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="BC3" s="3" t="s">
-        <v>67</v>
+        <v>83</v>
+      </c>
+      <c r="BC3" s="3">
+        <v>2323</v>
       </c>
       <c r="BD3" s="3" t="s">
         <v>67</v>
@@ -1491,7 +1488,7 @@
       </c>
     </row>
     <row r="4" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="10" t="s">
         <v>64</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1651,10 +1648,10 @@
         <v>67</v>
       </c>
       <c r="BB4" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="BC4" s="3" t="s">
-        <v>67</v>
+        <v>83</v>
+      </c>
+      <c r="BC4" s="3">
+        <v>2323</v>
       </c>
       <c r="BD4" s="3" t="s">
         <v>67</v>
@@ -1703,7 +1700,7 @@
       </c>
     </row>
     <row r="5" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="10" t="s">
         <v>64</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -1769,20 +1766,20 @@
       <c r="V5" s="5">
         <v>9838234567</v>
       </c>
-      <c r="W5" s="7" t="s">
-        <v>79</v>
+      <c r="W5" s="13">
+        <v>376272752298316</v>
       </c>
       <c r="X5" s="3">
         <v>1129</v>
       </c>
       <c r="Y5" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z5" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="Z5" s="3" t="s">
+      <c r="AA5" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="AA5" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="AB5" s="3">
         <v>123</v>
@@ -1791,7 +1788,7 @@
         <v>67</v>
       </c>
       <c r="AD5" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AE5" s="3">
         <v>6000</v>
@@ -1863,7 +1860,7 @@
         <v>67</v>
       </c>
       <c r="BB5" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="BC5" s="3">
         <v>2323</v>
@@ -1915,11 +1912,11 @@
       </c>
     </row>
     <row r="6" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="10" t="s">
         <v>64</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>66</v>
@@ -1981,20 +1978,20 @@
       <c r="V6" s="5">
         <v>9838234567</v>
       </c>
-      <c r="W6" s="7" t="s">
-        <v>79</v>
+      <c r="W6" s="13">
+        <v>376272752298316</v>
       </c>
       <c r="X6" s="3">
         <v>1129</v>
       </c>
       <c r="Y6" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z6" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="Z6" s="3" t="s">
+      <c r="AA6" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="AA6" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="AB6" s="3">
         <v>123</v>
@@ -2075,7 +2072,7 @@
         <v>67</v>
       </c>
       <c r="BB6" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="BC6" s="3">
         <v>2323</v>
@@ -2127,11 +2124,11 @@
       </c>
     </row>
     <row r="7" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="10" t="s">
         <v>64</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>66</v>
@@ -2187,26 +2184,26 @@
       <c r="T7" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="U7" s="8" t="s">
+      <c r="U7" s="7" t="s">
         <v>72</v>
       </c>
       <c r="V7" s="5">
         <v>9838234567</v>
       </c>
-      <c r="W7" s="7" t="s">
-        <v>79</v>
+      <c r="W7" s="13">
+        <v>376272752298316</v>
       </c>
       <c r="X7" s="3">
         <v>1129</v>
       </c>
       <c r="Y7" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z7" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="Z7" s="3" t="s">
+      <c r="AA7" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="AA7" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="AB7" s="3">
         <v>123</v>
@@ -2215,7 +2212,7 @@
         <v>67</v>
       </c>
       <c r="AD7" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AE7" s="3">
         <v>6000</v>
@@ -2287,7 +2284,7 @@
         <v>67</v>
       </c>
       <c r="BB7" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="BC7" s="3">
         <v>2323</v>
@@ -2317,7 +2314,7 @@
         <v>67</v>
       </c>
       <c r="BL7" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BM7" s="3" t="s">
         <v>67</v>
@@ -2339,11 +2336,11 @@
       </c>
     </row>
     <row r="8" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="10" t="s">
         <v>64</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>66</v>
@@ -2376,7 +2373,7 @@
         <v>67</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>67</v>
@@ -2499,10 +2496,10 @@
         <v>67</v>
       </c>
       <c r="BB8" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="BC8" s="3" t="s">
-        <v>67</v>
+        <v>83</v>
+      </c>
+      <c r="BC8" s="3">
+        <v>2323</v>
       </c>
       <c r="BD8" s="3" t="s">
         <v>67</v>
@@ -2551,11 +2548,11 @@
       </c>
     </row>
     <row r="9" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="10" t="s">
         <v>64</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>66</v>
@@ -2588,7 +2585,7 @@
         <v>67</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>67</v>
@@ -2711,10 +2708,10 @@
         <v>67</v>
       </c>
       <c r="BB9" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="BC9" s="3" t="s">
-        <v>67</v>
+        <v>83</v>
+      </c>
+      <c r="BC9" s="3">
+        <v>2323</v>
       </c>
       <c r="BD9" s="3" t="s">
         <v>67</v>
@@ -2763,11 +2760,11 @@
       </c>
     </row>
     <row r="10" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="10" t="s">
         <v>64</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>66</v>
@@ -2800,7 +2797,7 @@
         <v>67</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>67</v>
@@ -2923,10 +2920,10 @@
         <v>67</v>
       </c>
       <c r="BB10" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="BC10" s="3" t="s">
-        <v>67</v>
+        <v>83</v>
+      </c>
+      <c r="BC10" s="3">
+        <v>2323</v>
       </c>
       <c r="BD10" s="3" t="s">
         <v>67</v>
@@ -2975,11 +2972,11 @@
       </c>
     </row>
     <row r="11" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="10" t="s">
         <v>64</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>66</v>
@@ -3012,7 +3009,7 @@
         <v>67</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N11" s="3" t="s">
         <v>67</v>
@@ -3135,10 +3132,10 @@
         <v>67</v>
       </c>
       <c r="BB11" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="BC11" s="3" t="s">
-        <v>67</v>
+        <v>83</v>
+      </c>
+      <c r="BC11" s="3">
+        <v>2323</v>
       </c>
       <c r="BD11" s="3" t="s">
         <v>67</v>
@@ -3187,11 +3184,11 @@
       </c>
     </row>
     <row r="12" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" s="10" t="s">
         <v>64</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>66</v>
@@ -3281,7 +3278,7 @@
         <v>67</v>
       </c>
       <c r="AF12" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AG12" s="3" t="s">
         <v>67</v>
@@ -3347,7 +3344,7 @@
         <v>67</v>
       </c>
       <c r="BB12" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="BC12" s="3">
         <v>2323</v>
@@ -3399,14 +3396,14 @@
       </c>
     </row>
     <row r="13" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" s="10" t="s">
         <v>64</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>103</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>104</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>67</v>
@@ -3559,10 +3556,10 @@
         <v>67</v>
       </c>
       <c r="BB13" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="BC13" s="3" t="s">
-        <v>67</v>
+        <v>83</v>
+      </c>
+      <c r="BC13" s="3">
+        <v>2323</v>
       </c>
       <c r="BD13" s="3" t="s">
         <v>67</v>
@@ -3586,7 +3583,7 @@
         <v>67</v>
       </c>
       <c r="BK13" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="BL13" s="3" t="s">
         <v>67</v>
@@ -3611,11 +3608,11 @@
       </c>
     </row>
     <row r="14" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" s="10" t="s">
         <v>64</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>66</v>
@@ -3771,7 +3768,7 @@
         <v>67</v>
       </c>
       <c r="BB14" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="BC14" s="3">
         <v>2323</v>
@@ -3807,7 +3804,7 @@
         <v>67</v>
       </c>
       <c r="BN14" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BO14" t="s">
         <v>67</v>
@@ -3823,11 +3820,11 @@
       </c>
     </row>
     <row r="15" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" s="10" t="s">
         <v>64</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>66</v>
@@ -3857,7 +3854,7 @@
         <v>67</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>67</v>
@@ -3983,7 +3980,7 @@
         <v>67</v>
       </c>
       <c r="BB15" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="BC15" s="3">
         <v>2323</v>
@@ -4035,11 +4032,11 @@
       </c>
     </row>
     <row r="16" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" s="10" t="s">
         <v>64</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>66</v>
@@ -4051,7 +4048,7 @@
         <v>67</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>67</v>
@@ -4195,10 +4192,10 @@
         <v>67</v>
       </c>
       <c r="BB16" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="BC16" s="3" t="s">
-        <v>67</v>
+        <v>83</v>
+      </c>
+      <c r="BC16" s="3">
+        <v>2323</v>
       </c>
       <c r="BD16" s="3" t="s">
         <v>67</v>
@@ -4247,11 +4244,11 @@
       </c>
     </row>
     <row r="17" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="A17" s="10" t="s">
         <v>64</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>66</v>
@@ -4281,7 +4278,7 @@
         <v>67</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>67</v>
@@ -4459,11 +4456,11 @@
       </c>
     </row>
     <row r="18" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="A18" s="10" t="s">
         <v>64</v>
       </c>
       <c r="B18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>66</v>
@@ -4619,7 +4616,7 @@
         <v>67</v>
       </c>
       <c r="BB18" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="BC18" s="3">
         <v>2323</v>
@@ -4671,11 +4668,11 @@
       </c>
     </row>
     <row r="19" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="A19" s="10" t="s">
         <v>64</v>
       </c>
       <c r="B19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>66</v>
@@ -4831,7 +4828,7 @@
         <v>67</v>
       </c>
       <c r="BB19" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="BC19" s="3">
         <v>2323</v>
@@ -4883,19 +4880,19 @@
       </c>
     </row>
     <row r="20" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="A20" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B20" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="C20" s="10" t="s">
+      <c r="B20" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D20" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="E20" s="10" t="s">
+      <c r="D20" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="9" t="s">
         <v>67</v>
       </c>
       <c r="F20" s="4" t="s">
@@ -4917,159 +4914,159 @@
         <v>67</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="M20" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="N20" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="O20" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="P20" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q20" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="R20" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="M20" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="N20" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="O20" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="P20" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q20" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="R20" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="S20" s="10" t="s">
+      <c r="S20" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="T20" s="10" t="s">
+      <c r="T20" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="U20" s="10" t="s">
+      <c r="U20" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="V20" s="10">
+      <c r="V20" s="9">
         <v>9838234567</v>
       </c>
-      <c r="W20" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="X20" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y20" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z20" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA20" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB20" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC20" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD20" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE20" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="AF20" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="AG20" s="10">
+      <c r="W20" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="X20" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y20" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z20" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA20" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB20" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC20" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD20" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE20" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF20" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG20" s="9">
         <v>38298026</v>
       </c>
-      <c r="AH20" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="AI20" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="AJ20" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="AK20" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="AL20" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="AM20" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="AN20" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="AO20" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="AP20" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="AQ20" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="AR20" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="AS20" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="AT20" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="AU20" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="AV20" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="AW20" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="AX20" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="AY20" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="AZ20" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="BA20" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="BB20" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="BC20" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="BD20" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="BE20" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="BF20" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="BG20" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="BH20" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="BI20" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="BJ20" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="BK20" s="10" t="s">
+      <c r="AH20" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI20" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ20" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK20" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL20" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM20" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AN20" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO20" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP20" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ20" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR20" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AS20" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT20" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AU20" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AV20" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AW20" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX20" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AY20" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AZ20" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="BA20" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="BB20" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BC20" s="3">
+        <v>2323</v>
+      </c>
+      <c r="BD20" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="BE20" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="BF20" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="BG20" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="BH20" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="BI20" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="BJ20" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="BK20" s="9" t="s">
         <v>67</v>
       </c>
       <c r="BL20" s="3" t="s">
@@ -5095,193 +5092,193 @@
       </c>
     </row>
     <row r="21" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="A21" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G21" s="9" t="s">
         <v>116</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>117</v>
       </c>
       <c r="H21" s="6">
         <v>45112</v>
       </c>
-      <c r="I21" s="10" t="s">
+      <c r="I21" s="9" t="s">
         <v>67</v>
       </c>
       <c r="J21" s="6">
         <v>45119</v>
       </c>
-      <c r="K21" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="L21" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="M21" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="N21" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="O21" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="P21" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q21" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="R21" s="10" t="s">
+      <c r="K21" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="L21" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="M21" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="N21" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="O21" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="P21" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q21" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="R21" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="S21" s="10" t="s">
+      <c r="S21" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="T21" s="10" t="s">
+      <c r="T21" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="U21" s="10" t="s">
+      <c r="U21" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="V21" s="10">
+      <c r="V21" s="9">
         <v>9838234567</v>
       </c>
-      <c r="W21" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="X21" s="10">
+      <c r="W21" s="13">
+        <v>376272752298316</v>
+      </c>
+      <c r="X21" s="9">
         <v>1129</v>
       </c>
-      <c r="Y21" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="Z21" s="10" t="s">
+      <c r="Y21" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z21" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA21" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="AA21" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="AB21" s="10">
+      <c r="AB21" s="9">
         <v>123</v>
       </c>
-      <c r="AC21" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD21" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE21" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="AF21" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG21" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH21" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="AI21" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="AJ21" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="AK21" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="AL21" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="AM21" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="AN21" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="AO21" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="AP21" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="AQ21" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="AR21" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="AS21" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="AT21" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="AU21" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="AV21" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="AW21" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="AX21" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="AY21" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="AZ21" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="BA21" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="BB21" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="BC21" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="BD21" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="BE21" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="BF21" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="BG21" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="BH21" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="BI21" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="BJ21" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="BK21" s="10" t="s">
+      <c r="AC21" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD21" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE21" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF21" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG21" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH21" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI21" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ21" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK21" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL21" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM21" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AN21" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO21" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP21" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ21" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR21" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AS21" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT21" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AU21" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AV21" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AW21" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX21" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AY21" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AZ21" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="BA21" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="BB21" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BC21" s="3">
+        <v>2323</v>
+      </c>
+      <c r="BD21" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="BE21" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="BF21" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="BG21" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="BH21" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="BI21" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="BJ21" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="BK21" s="9" t="s">
         <v>67</v>
       </c>
       <c r="BL21" s="3" t="s">
@@ -5359,10 +5356,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" t="s">
         <v>95</v>
-      </c>
-      <c r="E1" t="s">
-        <v>96</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
@@ -5511,7 +5508,7 @@
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C2" t="s">
         <v>66</v>
@@ -5523,7 +5520,7 @@
         <v>67</v>
       </c>
       <c r="F2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G2" t="s">
         <v>67</v>

--- a/budget-web-tests/testData/Budget_Anonymous_AU.xlsx
+++ b/budget-web-tests/testData/Budget_Anonymous_AU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/StatusNeo/Desktop/Budget_Payless 27 Apr/ecom-us-web/budget-web-tests/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F4DFFDD-179B-7348-8AEF-87A1E2ABC716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915EBC32-CAEE-7A45-B0FA-C42AEB49E38E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -828,7 +828,7 @@
   <dimension ref="A1:BR29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="A2" sqref="A2:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/budget-web-tests/testData/Budget_Anonymous_AU.xlsx
+++ b/budget-web-tests/testData/Budget_Anonymous_AU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/StatusNeo/Desktop/Budget_Payless 27 Apr/ecom-us-web/budget-web-tests/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915EBC32-CAEE-7A45-B0FA-C42AEB49E38E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5015FD12-3D39-3C46-9F38-691FFAE81F67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="119">
   <si>
     <t>TestMethodName</t>
   </si>
@@ -296,9 +296,6 @@
     <t>Budget_Reservation_UtypeCoupon_PayLater_AU</t>
   </si>
   <si>
-    <t>UUZZ006</t>
-  </si>
-  <si>
     <t>Budget_Reservation_GtypeCoupon_PayLater_AU</t>
   </si>
   <si>
@@ -369,9 +366,6 @@
   </si>
   <si>
     <t>Budget_RES_Inbound_MultiCurrency_IATA_Cancellation_PayNow_US</t>
-  </si>
-  <si>
-    <t>India</t>
   </si>
   <si>
     <r>
@@ -828,7 +822,7 @@
   <dimension ref="A1:BR29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A21"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1045,22 +1039,22 @@
         <v>63</v>
       </c>
       <c r="BM1" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="BN1" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="BN1" s="11" t="s">
+      <c r="BO1" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="BO1" s="10" t="s">
-        <v>100</v>
-      </c>
       <c r="BP1" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="BQ1" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="BR1" s="12" t="s">
         <v>118</v>
-      </c>
-      <c r="BQ1" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="BR1" s="12" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:70" x14ac:dyDescent="0.2">
@@ -2797,7 +2791,7 @@
         <v>67</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>67</v>
@@ -2976,7 +2970,7 @@
         <v>64</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>66</v>
@@ -3009,7 +3003,7 @@
         <v>67</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="N11" s="3" t="s">
         <v>67</v>
@@ -3188,7 +3182,7 @@
         <v>64</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>66</v>
@@ -3278,7 +3272,7 @@
         <v>67</v>
       </c>
       <c r="AF12" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AG12" s="3" t="s">
         <v>67</v>
@@ -3400,10 +3394,10 @@
         <v>64</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>102</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>103</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>67</v>
@@ -3583,7 +3577,7 @@
         <v>67</v>
       </c>
       <c r="BK13" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="BL13" s="3" t="s">
         <v>67</v>
@@ -3612,7 +3606,7 @@
         <v>64</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>66</v>
@@ -3804,7 +3798,7 @@
         <v>67</v>
       </c>
       <c r="BN14" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="BO14" t="s">
         <v>67</v>
@@ -3824,7 +3818,7 @@
         <v>64</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>66</v>
@@ -3854,7 +3848,7 @@
         <v>67</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>67</v>
@@ -4036,7 +4030,7 @@
         <v>64</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>66</v>
@@ -4048,7 +4042,7 @@
         <v>67</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>67</v>
@@ -4248,7 +4242,7 @@
         <v>64</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>66</v>
@@ -4278,7 +4272,7 @@
         <v>67</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>67</v>
@@ -4460,7 +4454,7 @@
         <v>64</v>
       </c>
       <c r="B18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>66</v>
@@ -4672,7 +4666,7 @@
         <v>64</v>
       </c>
       <c r="B19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>66</v>
@@ -4884,7 +4878,7 @@
         <v>64</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>66</v>
@@ -4914,7 +4908,7 @@
         <v>67</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M20" s="9" t="s">
         <v>67</v>
@@ -4974,7 +4968,7 @@
         <v>67</v>
       </c>
       <c r="AF20" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AG20" s="9">
         <v>38298026</v>
@@ -5096,7 +5090,7 @@
         <v>64</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>66</v>
@@ -5108,19 +5102,19 @@
         <v>67</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>116</v>
+        <v>68</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="H21" s="6">
-        <v>45112</v>
-      </c>
-      <c r="I21" s="9" t="s">
+        <v>45090</v>
+      </c>
+      <c r="I21" s="3" t="s">
         <v>67</v>
       </c>
       <c r="J21" s="6">
-        <v>45119</v>
+        <v>45100</v>
       </c>
       <c r="K21" s="9" t="s">
         <v>67</v>
@@ -5165,7 +5159,7 @@
         <v>1129</v>
       </c>
       <c r="Y21" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="Z21" s="9" t="s">
         <v>80</v>
@@ -5356,10 +5350,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" t="s">
         <v>94</v>
-      </c>
-      <c r="E1" t="s">
-        <v>95</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
@@ -5508,7 +5502,7 @@
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C2" t="s">
         <v>66</v>
@@ -5520,7 +5514,7 @@
         <v>67</v>
       </c>
       <c r="F2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G2" t="s">
         <v>67</v>

--- a/budget-web-tests/testData/Budget_Anonymous_AU.xlsx
+++ b/budget-web-tests/testData/Budget_Anonymous_AU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/StatusNeo/Desktop/Budget_Payless 27 Apr/ecom-us-web/budget-web-tests/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5015FD12-3D39-3C46-9F38-691FFAE81F67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A1B3FB9-39F8-3E4E-913B-2E2CD4A3EE91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -822,7 +822,7 @@
   <dimension ref="A1:BR29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="B3" sqref="A1:BR21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/budget-web-tests/testData/Budget_Anonymous_AU.xlsx
+++ b/budget-web-tests/testData/Budget_Anonymous_AU.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10409"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/StatusNeo/Desktop/Budget_Payless 27 Apr/ecom-us-web/budget-web-tests/testData/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD17E02F-EEFC-1849-9199-57AE5798C3D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9215"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Budget US Anonymous" sheetId="1" r:id="rId1"/>
@@ -364,7 +370,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>701 West</t>
     </r>
@@ -373,7 +379,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -394,16 +400,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="0;[Red]0"/>
-    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="181" formatCode="dd/mm/yyyy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="167" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="169" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -415,85 +417,48 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Courier New"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF800080"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -501,304 +466,19 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -806,251 +486,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1058,7 +499,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1073,81 +514,38 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1405,39 +803,39 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BR29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:BR21"/>
+      <selection activeCell="B13" sqref="A1:BR21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.8333333333333" customWidth="1"/>
+    <col min="1" max="1" width="24.83203125" customWidth="1"/>
     <col min="2" max="2" width="64.5" customWidth="1"/>
-    <col min="8" max="8" width="11.1666666666667"/>
+    <col min="8" max="8" width="11.1640625"/>
     <col min="10" max="10" width="12.5" customWidth="1"/>
-    <col min="22" max="22" width="11.1666666666667" style="1" customWidth="1"/>
-    <col min="23" max="23" width="16.3333333333333" customWidth="1"/>
+    <col min="22" max="22" width="11.1640625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="16.33203125" customWidth="1"/>
     <col min="24" max="24" width="12.5" customWidth="1"/>
-    <col min="25" max="25" width="8.66666666666667" customWidth="1"/>
-    <col min="33" max="33" width="13.1666666666667" customWidth="1"/>
-    <col min="49" max="49" width="15.3333333333333" customWidth="1"/>
+    <col min="25" max="25" width="8.6640625" customWidth="1"/>
+    <col min="33" max="33" width="13.1640625" customWidth="1"/>
+    <col min="49" max="49" width="15.33203125" customWidth="1"/>
     <col min="50" max="50" width="15.5" customWidth="1"/>
     <col min="51" max="51" width="16" customWidth="1"/>
-    <col min="64" max="64" width="12.8333333333333" customWidth="1"/>
+    <col min="64" max="64" width="12.83203125" customWidth="1"/>
     <col min="65" max="65" width="15.5" customWidth="1"/>
     <col min="66" max="66" width="8" customWidth="1"/>
-    <col min="67" max="67" width="21.1666666666667" customWidth="1"/>
+    <col min="67" max="67" width="21.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:70">
+    <row r="1" spans="1:70" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1649,7 +1047,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:70">
+    <row r="2" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>70</v>
       </c>
@@ -1861,7 +1259,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:70">
+    <row r="3" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>70</v>
       </c>
@@ -2073,7 +1471,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:70">
+    <row r="4" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>70</v>
       </c>
@@ -2285,7 +1683,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:70">
+    <row r="5" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>70</v>
       </c>
@@ -2497,7 +1895,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:70">
+    <row r="6" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>70</v>
       </c>
@@ -2709,7 +2107,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:70">
+    <row r="7" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>70</v>
       </c>
@@ -2921,7 +2319,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:70">
+    <row r="8" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>70</v>
       </c>
@@ -3133,7 +2531,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:70">
+    <row r="9" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>70</v>
       </c>
@@ -3345,7 +2743,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:70">
+    <row r="10" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>70</v>
       </c>
@@ -3557,7 +2955,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:70">
+    <row r="11" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>70</v>
       </c>
@@ -3769,7 +3167,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:70">
+    <row r="12" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>70</v>
       </c>
@@ -3981,7 +3379,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:70">
+    <row r="13" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>70</v>
       </c>
@@ -4193,7 +3591,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:70">
+    <row r="14" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>70</v>
       </c>
@@ -4405,7 +3803,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:70">
+    <row r="15" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>70</v>
       </c>
@@ -4617,7 +4015,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:70">
+    <row r="16" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>70</v>
       </c>
@@ -4829,7 +4227,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:70">
+    <row r="17" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>70</v>
       </c>
@@ -5041,7 +4439,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:70">
+    <row r="18" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>70</v>
       </c>
@@ -5253,7 +4651,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:70">
+    <row r="19" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>70</v>
       </c>
@@ -5465,7 +4863,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:70">
+    <row r="20" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>70</v>
       </c>
@@ -5677,7 +5075,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:70">
+    <row r="21" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>70</v>
       </c>
@@ -5889,51 +5287,49 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="22:22">
+    <row r="22" spans="1:70" x14ac:dyDescent="0.2">
       <c r="V22"/>
     </row>
-    <row r="23" spans="22:22">
+    <row r="23" spans="1:70" x14ac:dyDescent="0.2">
       <c r="V23"/>
     </row>
-    <row r="24" spans="22:22">
+    <row r="24" spans="1:70" x14ac:dyDescent="0.2">
       <c r="V24"/>
     </row>
-    <row r="25" spans="22:22">
+    <row r="25" spans="1:70" x14ac:dyDescent="0.2">
       <c r="V25"/>
     </row>
-    <row r="26" spans="22:22">
+    <row r="26" spans="1:70" x14ac:dyDescent="0.2">
       <c r="V26"/>
     </row>
-    <row r="27" spans="22:22">
+    <row r="27" spans="1:70" x14ac:dyDescent="0.2">
       <c r="V27"/>
     </row>
-    <row r="28" spans="22:22">
+    <row r="28" spans="1:70" x14ac:dyDescent="0.2">
       <c r="V28"/>
     </row>
-    <row r="29" spans="22:22">
+    <row r="29" spans="1:70" x14ac:dyDescent="0.2">
       <c r="V29"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="U7" r:id="rId1" display="automation@yopmail.com" tooltip="mailto:automation@yopmail.com"/>
+    <hyperlink ref="U7" r:id="rId1" tooltip="mailto:automation@yopmail.com" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BA2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6094,7 +5490,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="2:53">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>117</v>
       </c>
@@ -6254,6 +5650,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/budget-web-tests/testData/Budget_Anonymous_AU.xlsx
+++ b/budget-web-tests/testData/Budget_Anonymous_AU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/StatusNeo/Desktop/Budget_Payless 27 Apr/ecom-us-web/budget-web-tests/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD17E02F-EEFC-1849-9199-57AE5798C3D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA16984D-7457-2C42-B27C-FEF7ADF677E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1499" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="119">
   <si>
     <t>TestMethodName</t>
   </si>
@@ -402,8 +402,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="167" formatCode="0;[Red]0"/>
-    <numFmt numFmtId="169" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="164" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -499,7 +499,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -514,14 +514,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -812,7 +812,7 @@
   <dimension ref="A1:BR29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="A1:BR21"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -842,7 +842,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -3540,10 +3540,10 @@
         <v>73</v>
       </c>
       <c r="BB13" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="BC13" s="4">
-        <v>2323</v>
+        <v>73</v>
+      </c>
+      <c r="BC13" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="BD13" s="4" t="s">
         <v>73</v>

--- a/budget-web-tests/testData/Budget_Anonymous_AU.xlsx
+++ b/budget-web-tests/testData/Budget_Anonymous_AU.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10409"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/StatusNeo/Desktop/Budget_Payless 27 Apr/ecom-us-web/budget-web-tests/testData/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA16984D-7457-2C42-B27C-FEF7ADF677E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="22368" windowHeight="9215"/>
   </bookViews>
   <sheets>
     <sheet name="Budget US Anonymous" sheetId="1" r:id="rId1"/>
@@ -21,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1522" uniqueCount="121">
   <si>
     <t>TestMethodName</t>
   </si>
@@ -233,6 +227,12 @@
     <t>Paynow</t>
   </si>
   <si>
+    <t>Age1</t>
+  </si>
+  <si>
+    <t>ModifyRentalDetails</t>
+  </si>
+  <si>
     <t>AnonymousUserTestCases</t>
   </si>
   <si>
@@ -350,10 +350,10 @@
     <t>Budget_Reservation_AnonymousUser_FlightInfoMandatory_AU</t>
   </si>
   <si>
-    <t>Budget_Reservation_AnonymousUser_MoveFTP Step3 to Step4_AU</t>
-  </si>
-  <si>
-    <t>Budget_Reservation_AnonymousUser_Modify flow_MoveFTP Step3 to Step4_AU</t>
+    <t>Budget_Reservation_AnonymousUser_MoveFTP_Step3_to_Step4_AU</t>
+  </si>
+  <si>
+    <t>Budget_Reservation_AnonymousUser_Modify_flow_MoveFTP_Step3_to_Step4_AU</t>
   </si>
   <si>
     <t>Budget_RES_OneWay_USAA_PayLater_AU</t>
@@ -362,7 +362,7 @@
     <t>Y126501</t>
   </si>
   <si>
-    <t>Budget_RES_Inbound_MultiCurrency_IATA_Cancellation_PayNow_US</t>
+    <t>Budget_RES_Inbound_MultiCurrency_IATA_Cancellation_PayNow_AU</t>
   </si>
   <si>
     <r>
@@ -370,7 +370,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>701 West</t>
     </r>
@@ -379,7 +379,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -400,12 +400,16 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0;[Red]0"/>
-    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="181" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -417,48 +421,78 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Courier New"/>
-      <family val="1"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -466,19 +500,311 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -486,66 +812,351 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -803,52 +1414,52 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BR29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:BT29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="BJ1" workbookViewId="0">
+      <selection activeCell="BT1" sqref="BT1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="24.83203125" customWidth="1"/>
+    <col min="1" max="1" width="24.8333333333333" customWidth="1"/>
     <col min="2" max="2" width="64.5" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625"/>
+    <col min="8" max="8" width="11.1666666666667"/>
     <col min="10" max="10" width="12.5" customWidth="1"/>
-    <col min="22" max="22" width="11.1640625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="16.33203125" customWidth="1"/>
+    <col min="22" max="22" width="11.1666666666667" style="1" customWidth="1"/>
+    <col min="23" max="23" width="16.3333333333333" customWidth="1"/>
     <col min="24" max="24" width="12.5" customWidth="1"/>
-    <col min="25" max="25" width="8.6640625" customWidth="1"/>
-    <col min="33" max="33" width="13.1640625" customWidth="1"/>
-    <col min="49" max="49" width="15.33203125" customWidth="1"/>
+    <col min="25" max="25" width="8.66666666666667" customWidth="1"/>
+    <col min="33" max="33" width="13.1666666666667" customWidth="1"/>
+    <col min="49" max="49" width="15.3333333333333" customWidth="1"/>
     <col min="50" max="50" width="15.5" customWidth="1"/>
     <col min="51" max="51" width="16" customWidth="1"/>
-    <col min="64" max="64" width="12.83203125" customWidth="1"/>
+    <col min="64" max="64" width="12.8333333333333" customWidth="1"/>
     <col min="65" max="65" width="15.5" customWidth="1"/>
     <col min="66" max="66" width="8" customWidth="1"/>
-    <col min="67" max="67" width="21.1640625" customWidth="1"/>
+    <col min="67" max="67" width="21.1666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" ht="15.6" spans="1:72">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
@@ -1013,13 +1624,13 @@
       <c r="BG1" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="2" t="s">
+      <c r="BH1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="2" t="s">
+      <c r="BI1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="2" t="s">
+      <c r="BJ1" s="3" t="s">
         <v>61</v>
       </c>
       <c r="BK1" t="s">
@@ -1034,718 +1645,733 @@
       <c r="BN1" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" s="3" t="s">
+      <c r="BO1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" s="2" t="s">
+      <c r="BP1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" s="2" t="s">
+      <c r="BQ1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" s="2" t="s">
+      <c r="BR1" s="3" t="s">
         <v>69</v>
       </c>
+      <c r="BS1" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="2" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>70</v>
+    <row r="2" spans="1:71">
+      <c r="A2" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V2" s="9">
         <v>9838234567</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X2" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y2" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z2" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB2" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC2" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD2" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE2" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF2" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AG2" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AH2" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AI2" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AJ2" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AK2" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AL2" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AM2" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AN2" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AO2" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AP2" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AQ2" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AR2" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AS2" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AT2" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AU2" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AV2" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AW2" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AX2" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AY2" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AZ2" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BA2" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BB2" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="BC2" s="4">
         <v>2323</v>
       </c>
       <c r="BD2" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BE2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="BF2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="BG2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="BH2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="BK2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="BL2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="BM2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="BN2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>75</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>75</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>75</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>75</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:71">
+      <c r="A3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="U3" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="BF2" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="BG2" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="BH2" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="BI2" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="BJ2" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="BK2" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="BL2" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="BM2" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="BN2" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>73</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>73</v>
-      </c>
-      <c r="BQ2" t="s">
-        <v>73</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="T3" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="U3" s="4" t="s">
-        <v>78</v>
       </c>
       <c r="V3" s="9">
         <v>9838234567</v>
       </c>
       <c r="W3" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X3" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y3" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z3" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA3" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB3" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC3" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD3" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE3" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF3" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AG3" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AH3" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AI3" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AJ3" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AK3" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AL3" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AM3" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AN3" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AO3" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AP3" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AQ3" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AR3" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AS3" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AT3" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AU3" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AV3" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AW3" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AX3" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AY3" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AZ3" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BA3" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BB3" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="BC3" s="4">
         <v>2323</v>
       </c>
       <c r="BD3" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BE3" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="BF3" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="BG3" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="BH3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="BK3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="BL3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="BM3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="BN3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>75</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>75</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>75</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>75</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:71">
+      <c r="A4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="U4" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="BF3" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="BG3" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="BH3" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="BI3" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="BJ3" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="BK3" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="BL3" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="BM3" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="BN3" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="BO3" t="s">
-        <v>73</v>
-      </c>
-      <c r="BP3" t="s">
-        <v>73</v>
-      </c>
-      <c r="BQ3" t="s">
-        <v>73</v>
-      </c>
-      <c r="BR3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="T4" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="U4" s="4" t="s">
-        <v>78</v>
       </c>
       <c r="V4" s="9">
         <v>9838234567</v>
       </c>
       <c r="W4" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X4" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y4" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z4" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA4" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB4" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC4" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD4" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE4" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF4" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AG4" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AH4" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AI4" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AJ4" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AK4" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AL4" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AM4" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AN4" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AO4" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AP4" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AQ4" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AR4" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AS4" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AT4" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AU4" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AV4" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AW4" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AX4" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AY4" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AZ4" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BA4" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BB4" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="BC4" s="4">
         <v>2323</v>
       </c>
       <c r="BD4" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BE4" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="BF4" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="BG4" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="BH4" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BI4" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BJ4" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BK4" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BL4" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BM4" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BN4" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BO4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BP4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BQ4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BR4" t="s">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="BS4" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>70</v>
+    <row r="5" spans="1:71">
+      <c r="A5" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H5" s="6">
         <v>45090</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J5" s="6">
         <v>45100</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U5" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V5" s="9">
         <v>9838234567</v>
@@ -1757,207 +2383,210 @@
         <v>1129</v>
       </c>
       <c r="Y5" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Z5" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AA5" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AB5" s="4">
         <v>123</v>
       </c>
       <c r="AC5" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD5" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AE5" s="4">
         <v>6000</v>
       </c>
       <c r="AF5" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AG5" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AH5" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AI5" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AJ5" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AK5" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AL5" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AM5" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AN5" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AO5" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AP5" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AQ5" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AR5" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AS5" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AT5" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AU5" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AV5" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AW5" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AX5" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AY5" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AZ5" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BA5" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BB5" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="BC5" s="4">
         <v>2323</v>
       </c>
       <c r="BD5" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BE5" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="BF5" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="BG5" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="BH5" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BI5" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BJ5" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BK5" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BL5" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BM5" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BN5" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BO5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BP5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BQ5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BR5" t="s">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="BS5" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>70</v>
+    <row r="6" spans="1:71">
+      <c r="A6" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H6" s="6">
         <v>45090</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J6" s="6">
         <v>45100</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U6" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V6" s="9">
         <v>9838234567</v>
@@ -1969,207 +2598,210 @@
         <v>1129</v>
       </c>
       <c r="Y6" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Z6" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AA6" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AB6" s="4">
         <v>123</v>
       </c>
       <c r="AC6" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD6" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE6" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF6" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AG6" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AH6" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AI6" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AJ6" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AK6" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AL6" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AM6" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AN6" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AO6" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AP6" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AQ6" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AR6" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AS6" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AT6" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AU6" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AV6" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AW6" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AX6" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AY6" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AZ6" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BA6" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BB6" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="BC6" s="4">
         <v>2323</v>
       </c>
       <c r="BD6" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BE6" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="BF6" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="BG6" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="BH6" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BI6" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BJ6" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BK6" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BL6" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BM6" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BN6" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BO6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BP6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BQ6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BR6" t="s">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="BS6" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>70</v>
+    <row r="7" spans="1:71">
+      <c r="A7" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H7" s="6">
         <v>45090</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J7" s="6">
         <v>45100</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U7" s="11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V7" s="9">
         <v>9838234567</v>
@@ -2181,2963 +2813,3005 @@
         <v>1129</v>
       </c>
       <c r="Y7" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Z7" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AA7" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AB7" s="4">
         <v>123</v>
       </c>
       <c r="AC7" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD7" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AE7" s="4">
         <v>6000</v>
       </c>
       <c r="AF7" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AG7" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AH7" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AI7" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AJ7" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AK7" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AL7" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AM7" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AN7" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AO7" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AP7" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AQ7" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AR7" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AS7" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AT7" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AU7" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AV7" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AW7" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AX7" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AY7" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AZ7" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BA7" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BB7" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="BC7" s="4">
         <v>2323</v>
       </c>
       <c r="BD7" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BE7" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="BF7" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="BG7" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="BH7" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BI7" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BJ7" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BK7" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BL7" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="BM7" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BN7" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BO7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BP7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BQ7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BR7" t="s">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="BS7" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>70</v>
+    <row r="8" spans="1:71">
+      <c r="A8" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H8" s="6">
         <v>45090</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J8" s="6">
         <v>45100</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U8" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V8" s="9">
         <v>9838234567</v>
       </c>
       <c r="W8" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X8" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y8" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z8" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA8" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB8" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC8" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD8" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE8" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF8" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AG8" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AH8" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AI8" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AJ8" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AK8" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AL8" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AM8" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AN8" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AO8" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AP8" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AQ8" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AR8" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AS8" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AT8" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AU8" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AV8" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AW8" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AX8" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AY8" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AZ8" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BA8" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BB8" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="BC8" s="4">
         <v>2323</v>
       </c>
       <c r="BD8" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BE8" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="BF8" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="BG8" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="BH8" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BI8" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BJ8" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BK8" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BL8" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BM8" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BN8" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BO8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BP8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BQ8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BR8" t="s">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="BS8" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>70</v>
+    <row r="9" spans="1:71">
+      <c r="A9" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H9" s="6">
         <v>45090</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J9" s="6">
         <v>45100</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="S9" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U9" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V9" s="9">
         <v>9838234567</v>
       </c>
       <c r="W9" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X9" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y9" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z9" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA9" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB9" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC9" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD9" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE9" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF9" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AG9" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AH9" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AI9" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AJ9" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AK9" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AL9" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AM9" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AN9" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AO9" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AP9" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AQ9" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AR9" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AS9" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AT9" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AU9" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AV9" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AW9" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AX9" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AY9" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AZ9" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BA9" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BB9" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="BC9" s="4">
         <v>2323</v>
       </c>
       <c r="BD9" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BE9" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="BF9" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="BG9" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="BH9" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BI9" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BJ9" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BK9" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BL9" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BM9" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BN9" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BO9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BP9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BQ9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BR9" t="s">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="BS9" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>70</v>
+    <row r="10" spans="1:71">
+      <c r="A10" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H10" s="6">
         <v>45090</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J10" s="6">
         <v>45100</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R10" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="S10" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T10" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U10" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V10" s="9">
         <v>9838234567</v>
       </c>
       <c r="W10" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X10" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y10" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z10" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA10" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB10" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC10" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD10" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE10" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF10" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AG10" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AH10" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AI10" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AJ10" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AK10" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AL10" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AM10" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AN10" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AO10" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AP10" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AQ10" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AR10" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AS10" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AT10" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AU10" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AV10" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AW10" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AX10" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AY10" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AZ10" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BA10" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BB10" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="BC10" s="4">
         <v>2323</v>
       </c>
       <c r="BD10" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BE10" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="BF10" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="BG10" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="BH10" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BI10" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BJ10" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BK10" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BL10" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BM10" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BN10" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BO10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BP10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BQ10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BR10" t="s">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="BS10" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>70</v>
+    <row r="11" spans="1:71">
+      <c r="A11" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H11" s="6">
         <v>45090</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J11" s="6">
         <v>45100</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="S11" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T11" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U11" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V11" s="9">
         <v>9838234567</v>
       </c>
       <c r="W11" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X11" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y11" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z11" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA11" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB11" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC11" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD11" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE11" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF11" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AG11" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AH11" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AI11" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AJ11" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AK11" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AL11" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AM11" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AN11" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AO11" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AP11" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AQ11" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AR11" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AS11" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AT11" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AU11" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AV11" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AW11" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AX11" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AY11" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AZ11" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BA11" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BB11" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="BC11" s="4">
         <v>2323</v>
       </c>
       <c r="BD11" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BE11" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="BF11" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="BG11" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="BH11" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI11" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ11" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="BK11" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="BL11" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="BM11" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="BN11" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="BO11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BP11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BQ11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BR11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BS11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:71">
+      <c r="A12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="T12" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="U12" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="BF11" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="BG11" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="BH11" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="BI11" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="BJ11" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="BK11" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="BL11" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="BM11" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="BN11" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="BO11" t="s">
-        <v>73</v>
-      </c>
-      <c r="BP11" t="s">
-        <v>73</v>
-      </c>
-      <c r="BQ11" t="s">
-        <v>73</v>
-      </c>
-      <c r="BR11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="P12" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q12" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="R12" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="S12" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="T12" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="U12" s="4" t="s">
-        <v>78</v>
       </c>
       <c r="V12" s="9">
         <v>9838234567</v>
       </c>
       <c r="W12" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X12" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y12" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z12" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA12" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB12" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC12" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD12" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE12" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF12" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AG12" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AH12" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AI12" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AJ12" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AK12" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AL12" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AM12" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AN12" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AO12" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AP12" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AQ12" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AR12" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AS12" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AT12" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AU12" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AV12" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AW12" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AX12" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AY12" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AZ12" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BA12" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BB12" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="BC12" s="4">
         <v>2323</v>
       </c>
       <c r="BD12" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BE12" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="BF12" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="BG12" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="BH12" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BI12" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BJ12" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BK12" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BL12" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BM12" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BN12" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BO12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BP12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BQ12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BR12" t="s">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="BS12" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>70</v>
+    <row r="13" spans="1:71">
+      <c r="A13" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H13" s="4">
         <v>25</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R13" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S13" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T13" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U13" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V13" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W13" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X13" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y13" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z13" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA13" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB13" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC13" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD13" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE13" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF13" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AG13" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AH13" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AI13" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AJ13" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AK13" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AL13" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AM13" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AN13" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AO13" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AP13" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AQ13" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AR13" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AS13" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AT13" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AU13" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AV13" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AW13" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AX13" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AY13" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AZ13" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BA13" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BB13" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BC13" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BD13" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BE13" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="BF13" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BG13" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BH13" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BI13" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BJ13" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BK13" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="BL13" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BM13" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="BN13" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BO13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BP13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BQ13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BR13" t="s">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="BS13" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>70</v>
+    <row r="14" spans="1:71">
+      <c r="A14" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H14" s="6">
         <v>45090</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J14" s="6">
         <v>45100</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q14" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R14" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="S14" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T14" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U14" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V14" s="9">
         <v>9838234567</v>
       </c>
       <c r="W14" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X14" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y14" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z14" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA14" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB14" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC14" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD14" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE14" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF14" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AG14" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AH14" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AI14" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AJ14" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AK14" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AL14" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AM14" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AN14" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AO14" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AP14" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AQ14" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AR14" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AS14" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AT14" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AU14" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AV14" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AW14" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AX14" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AY14" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AZ14" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BA14" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BB14" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="BC14" s="4">
         <v>2323</v>
       </c>
       <c r="BD14" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BE14" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="BF14" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="BG14" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="BH14" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI14" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ14" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="BK14" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="BL14" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="BM14" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="BN14" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="BO14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BP14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BQ14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BR14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BS14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:71">
+      <c r="A15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="R15" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="T15" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="U15" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="BF14" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="BG14" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="BH14" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="BI14" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="BJ14" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="BK14" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="BL14" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="BM14" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="BN14" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="BO14" t="s">
-        <v>73</v>
-      </c>
-      <c r="BP14" t="s">
-        <v>73</v>
-      </c>
-      <c r="BQ14" t="s">
-        <v>73</v>
-      </c>
-      <c r="BR14" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="N15" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="O15" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="P15" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q15" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="R15" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="S15" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="T15" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="U15" s="4" t="s">
-        <v>78</v>
       </c>
       <c r="V15" s="9">
         <v>9838234567</v>
       </c>
       <c r="W15" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X15" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y15" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z15" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA15" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB15" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC15" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD15" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE15" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF15" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AG15" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AH15" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AI15" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AJ15" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AK15" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AL15" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AM15" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AN15" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AO15" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AP15" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AQ15" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AR15" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AS15" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AT15" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AU15" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AV15" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AW15" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AX15" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AY15" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AZ15" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BA15" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BB15" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="BC15" s="4">
         <v>2323</v>
       </c>
       <c r="BD15" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BE15" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="BF15" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="BG15" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="BH15" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BI15" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BJ15" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BK15" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BL15" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BM15" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BN15" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BO15" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BP15" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BQ15" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BR15" t="s">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="BS15" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>70</v>
+    <row r="16" spans="1:71">
+      <c r="A16" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H16" s="6">
         <v>45090</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J16" s="6">
         <v>45100</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P16" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q16" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R16" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="S16" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T16" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U16" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V16" s="9">
         <v>9838234567</v>
       </c>
       <c r="W16" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X16" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y16" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z16" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA16" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB16" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC16" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD16" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE16" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF16" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AG16" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AH16" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AI16" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AJ16" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AK16" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AL16" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AM16" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AN16" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AO16" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AP16" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AQ16" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AR16" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AS16" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AT16" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AU16" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AV16" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AW16" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AX16" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AY16" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AZ16" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BA16" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BB16" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="BC16" s="4">
         <v>2323</v>
       </c>
       <c r="BD16" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BE16" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="BF16" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="BG16" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="BH16" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI16" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ16" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="BK16" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="BL16" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="BM16" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="BN16" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="BO16" t="s">
+        <v>75</v>
+      </c>
+      <c r="BP16" t="s">
+        <v>75</v>
+      </c>
+      <c r="BQ16" t="s">
+        <v>75</v>
+      </c>
+      <c r="BR16" t="s">
+        <v>75</v>
+      </c>
+      <c r="BS16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:71">
+      <c r="A17" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="R17" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="S17" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="T17" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="U17" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="BF16" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="BG16" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="BH16" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="BI16" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="BJ16" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="BK16" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="BL16" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="BM16" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="BN16" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="BO16" t="s">
-        <v>73</v>
-      </c>
-      <c r="BP16" t="s">
-        <v>73</v>
-      </c>
-      <c r="BQ16" t="s">
-        <v>73</v>
-      </c>
-      <c r="BR16" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="M17" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="N17" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="O17" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="P17" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q17" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="R17" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="S17" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="T17" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="U17" s="4" t="s">
-        <v>78</v>
       </c>
       <c r="V17" s="9">
         <v>9838234567</v>
       </c>
       <c r="W17" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X17" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y17" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z17" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA17" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB17" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC17" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD17" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE17" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF17" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AG17" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AH17" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AI17" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AJ17" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AK17" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AL17" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AM17" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AN17" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AO17" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AP17" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AQ17" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AR17" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AS17" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AT17" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AU17" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AV17" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AW17" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AX17" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AY17" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AZ17" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BA17" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BB17" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BC17" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BD17" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BE17" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="BF17" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="BG17" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="BH17" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI17" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ17" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="BK17" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="BL17" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="BM17" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="BN17" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="BO17" t="s">
+        <v>75</v>
+      </c>
+      <c r="BP17" t="s">
+        <v>75</v>
+      </c>
+      <c r="BQ17" t="s">
+        <v>75</v>
+      </c>
+      <c r="BR17" t="s">
+        <v>75</v>
+      </c>
+      <c r="BS17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:71">
+      <c r="A18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="R18" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="S18" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="T18" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="U18" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="BF17" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="BG17" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="BH17" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="BI17" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="BJ17" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="BK17" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="BL17" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="BM17" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="BN17" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="BO17" t="s">
-        <v>73</v>
-      </c>
-      <c r="BP17" t="s">
-        <v>73</v>
-      </c>
-      <c r="BQ17" t="s">
-        <v>73</v>
-      </c>
-      <c r="BR17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18" t="s">
-        <v>109</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="N18" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="O18" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="P18" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q18" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="R18" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="S18" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="T18" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="U18" s="4" t="s">
-        <v>78</v>
       </c>
       <c r="V18" s="9">
         <v>9838234567</v>
       </c>
       <c r="W18" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X18" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y18" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z18" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA18" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB18" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC18" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD18" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE18" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF18" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AG18" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AH18" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AI18" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AJ18" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AK18" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AL18" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AM18" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AN18" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AO18" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AP18" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AQ18" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AR18" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AS18" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AT18" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AU18" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AV18" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AW18" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AX18" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AY18" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AZ18" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BA18" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BB18" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="BC18" s="4">
         <v>2323</v>
       </c>
       <c r="BD18" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BE18" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="BF18" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="BG18" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="BH18" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI18" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ18" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="BK18" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="BL18" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="BM18" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="BN18" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="BO18" t="s">
+        <v>82</v>
+      </c>
+      <c r="BP18" t="s">
+        <v>75</v>
+      </c>
+      <c r="BQ18" t="s">
+        <v>75</v>
+      </c>
+      <c r="BR18" t="s">
+        <v>75</v>
+      </c>
+      <c r="BS18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:71">
+      <c r="A19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" t="s">
+        <v>112</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="R19" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="S19" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="T19" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="U19" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="BF18" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="BG18" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="BH18" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="BI18" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="BJ18" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="BK18" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="BL18" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="BM18" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="BN18" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="BO18" t="s">
-        <v>80</v>
-      </c>
-      <c r="BP18" t="s">
-        <v>73</v>
-      </c>
-      <c r="BQ18" t="s">
-        <v>73</v>
-      </c>
-      <c r="BR18" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B19" t="s">
-        <v>110</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="M19" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="N19" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="O19" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="P19" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q19" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="R19" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="S19" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="T19" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="U19" s="4" t="s">
-        <v>78</v>
       </c>
       <c r="V19" s="9">
         <v>9838234567</v>
       </c>
       <c r="W19" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X19" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y19" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z19" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA19" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB19" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC19" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD19" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE19" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF19" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AG19" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AH19" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AI19" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AJ19" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AK19" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AL19" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AM19" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AN19" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AO19" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AP19" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AQ19" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AR19" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AS19" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AT19" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AU19" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AV19" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AW19" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AX19" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AY19" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AZ19" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BA19" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BB19" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="BC19" s="4">
         <v>2323</v>
       </c>
       <c r="BD19" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BE19" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="BF19" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="BG19" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="BH19" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI19" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ19" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="BK19" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="BL19" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="BM19" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="BN19" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="BO19" t="s">
+        <v>82</v>
+      </c>
+      <c r="BP19" t="s">
+        <v>75</v>
+      </c>
+      <c r="BQ19" t="s">
+        <v>75</v>
+      </c>
+      <c r="BR19" t="s">
+        <v>75</v>
+      </c>
+      <c r="BS19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:71">
+      <c r="A20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="N20" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="O20" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="P20" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q20" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="R20" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="S20" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="T20" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="U20" s="8" t="s">
         <v>80</v>
-      </c>
-      <c r="BF19" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="BG19" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="BH19" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="BI19" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="BJ19" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="BK19" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="BL19" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="BM19" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="BN19" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="BO19" t="s">
-        <v>80</v>
-      </c>
-      <c r="BP19" t="s">
-        <v>73</v>
-      </c>
-      <c r="BQ19" t="s">
-        <v>73</v>
-      </c>
-      <c r="BR19" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="L20" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="M20" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="N20" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="O20" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="P20" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q20" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="R20" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="S20" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="T20" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="U20" s="8" t="s">
-        <v>78</v>
       </c>
       <c r="V20" s="8">
         <v>9838234567</v>
       </c>
       <c r="W20" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X20" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y20" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z20" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA20" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB20" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC20" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD20" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE20" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF20" s="8" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AG20" s="8">
         <v>38298026</v>
       </c>
       <c r="AH20" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AI20" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AJ20" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AK20" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AL20" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AM20" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AN20" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AO20" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AP20" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AQ20" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AR20" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AS20" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AT20" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AU20" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AV20" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AW20" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AX20" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AY20" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AZ20" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BA20" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BB20" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="BC20" s="4">
         <v>2323</v>
       </c>
       <c r="BD20" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BE20" s="8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="BF20" s="8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="BG20" s="8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="BH20" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BI20" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BJ20" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BK20" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BL20" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BM20" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BN20" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BO20" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BP20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BQ20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BR20" t="s">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="BS20" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>70</v>
+    <row r="21" spans="1:71">
+      <c r="A21" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H21" s="6">
         <v>45090</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J21" s="6">
         <v>45100</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="N21" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O21" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P21" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q21" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R21" s="8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="S21" s="8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T21" s="8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U21" s="8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V21" s="8">
         <v>9838234567</v>
@@ -5149,187 +5823,192 @@
         <v>1129</v>
       </c>
       <c r="Y21" s="8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Z21" s="8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AA21" s="8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AB21" s="8">
         <v>123</v>
       </c>
       <c r="AC21" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD21" s="8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AE21" s="8">
         <v>6000</v>
       </c>
       <c r="AF21" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AG21" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AH21" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AI21" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AJ21" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AK21" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AL21" s="8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AM21" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AN21" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AO21" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AP21" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AQ21" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AR21" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AS21" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AT21" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AU21" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AV21" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AW21" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AX21" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AY21" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AZ21" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BA21" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BB21" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="BC21" s="4">
         <v>2323</v>
       </c>
       <c r="BD21" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BE21" s="8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="BF21" s="8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="BG21" s="8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="BH21" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BI21" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BJ21" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BK21" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BL21" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BM21" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BN21" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BO21" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BP21" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BQ21" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BR21" t="s">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="BS21" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="22" spans="22:22">
       <c r="V22"/>
     </row>
-    <row r="23" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="23" spans="22:22">
       <c r="V23"/>
     </row>
-    <row r="24" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="24" spans="22:22">
       <c r="V24"/>
     </row>
-    <row r="25" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="25" spans="22:22">
       <c r="V25"/>
     </row>
-    <row r="26" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="26" spans="22:22">
       <c r="V26"/>
     </row>
-    <row r="27" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="27" spans="22:22">
       <c r="V27"/>
     </row>
-    <row r="28" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="28" spans="22:22">
       <c r="V28"/>
     </row>
-    <row r="29" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="29" spans="22:22">
       <c r="V29"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="U7" r:id="rId1" tooltip="mailto:automation@yopmail.com" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="U7" r:id="rId1" display="automation@yopmail.com" tooltip="mailto:automation@yopmail.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:BA2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <sheetData>
-    <row r="1" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:53">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5340,10 +6019,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
@@ -5490,165 +6169,166 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:53">
       <c r="B2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="N2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="S2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V2">
         <v>9838234567</v>
       </c>
       <c r="W2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AG2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AH2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AI2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AJ2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AK2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AL2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AM2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AN2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AO2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AP2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AQ2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AR2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AS2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AT2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AU2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AV2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AW2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AX2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AY2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AZ2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BA2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/budget-web-tests/testData/Budget_Anonymous_AU.xlsx
+++ b/budget-web-tests/testData/Budget_Anonymous_AU.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1522" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1563" uniqueCount="122">
   <si>
     <t>TestMethodName</t>
   </si>
@@ -231,6 +231,9 @@
   </si>
   <si>
     <t>ModifyRentalDetails</t>
+  </si>
+  <si>
+    <t>Extras</t>
   </si>
   <si>
     <t>AnonymousUserTestCases</t>
@@ -403,13 +406,13 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0;[Red]0"/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="181" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="181" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -460,97 +463,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -566,8 +484,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -581,8 +507,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -595,9 +569,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -619,7 +615,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -631,13 +729,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -649,157 +789,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -813,17 +809,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -839,33 +844,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -887,6 +865,39 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -895,176 +906,161 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1079,14 +1075,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1097,9 +1093,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1420,10 +1413,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BT29"/>
+  <dimension ref="A1:BU29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="BJ1" workbookViewId="0">
-      <selection activeCell="BT1" sqref="BT1"/>
+      <selection activeCell="BT2" sqref="BT2:BT21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.4"/>
@@ -1446,7 +1439,7 @@
     <col min="67" max="67" width="21.1666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:72">
+    <row r="1" ht="15.6" spans="1:73">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1657,721 +1650,742 @@
       <c r="BR1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" s="13" t="s">
+      <c r="BS1" s="2" t="s">
         <v>70</v>
       </c>
       <c r="BT1" t="s">
         <v>71</v>
       </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="2" spans="1:71">
+    <row r="2" spans="1:73">
       <c r="A2" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V2" s="9">
         <v>9838234567</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X2" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y2" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z2" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB2" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC2" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD2" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE2" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF2" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG2" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH2" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI2" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ2" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK2" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL2" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AM2" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AN2" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AO2" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AP2" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AQ2" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AR2" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AS2" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AT2" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AU2" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AV2" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AW2" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AX2" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AY2" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AZ2" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BA2" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BB2" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="BC2" s="4">
         <v>2323</v>
       </c>
       <c r="BD2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE2" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF2" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG2" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="BH2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BK2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BL2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BM2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BN2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:73">
+      <c r="A3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="BE2" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="BF2" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="BG2" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="BH2" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BI2" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BJ2" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BK2" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BL2" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BM2" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BN2" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BQ2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:71">
-      <c r="A3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>74</v>
-      </c>
       <c r="D3" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V3" s="9">
         <v>9838234567</v>
       </c>
       <c r="W3" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X3" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y3" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z3" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA3" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB3" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC3" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD3" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE3" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF3" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG3" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH3" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI3" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ3" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK3" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL3" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AM3" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AN3" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AO3" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AP3" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AQ3" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AR3" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AS3" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AT3" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AU3" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AV3" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AW3" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AX3" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AY3" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AZ3" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BA3" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BB3" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="BC3" s="4">
         <v>2323</v>
       </c>
       <c r="BD3" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE3" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF3" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG3" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="BH3" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI3" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ3" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BK3" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BL3" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BM3" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BN3" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>76</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>76</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>76</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>76</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>76</v>
+      </c>
+      <c r="BT3" t="s">
+        <v>76</v>
+      </c>
+      <c r="BU3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:73">
+      <c r="A4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="BE3" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="BF3" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="BG3" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="BH3" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BI3" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BJ3" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BK3" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BL3" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BM3" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BN3" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BO3" t="s">
-        <v>75</v>
-      </c>
-      <c r="BP3" t="s">
-        <v>75</v>
-      </c>
-      <c r="BQ3" t="s">
-        <v>75</v>
-      </c>
-      <c r="BR3" t="s">
-        <v>75</v>
-      </c>
-      <c r="BS3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:71">
-      <c r="A4" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>74</v>
-      </c>
       <c r="D4" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U4" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V4" s="9">
         <v>9838234567</v>
       </c>
       <c r="W4" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X4" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y4" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z4" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA4" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB4" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC4" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD4" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE4" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF4" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG4" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH4" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI4" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ4" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK4" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL4" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AM4" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AN4" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AO4" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AP4" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AQ4" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AR4" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AS4" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AT4" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AU4" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AV4" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AW4" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AX4" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AY4" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AZ4" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BA4" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BB4" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="BC4" s="4">
         <v>2323</v>
       </c>
       <c r="BD4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE4" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF4" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG4" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="BH4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BK4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BL4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BM4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BN4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BS4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BT4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BU4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:73">
+      <c r="A5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="BE4" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="BF4" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="BG4" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="BH4" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BI4" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BJ4" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BK4" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BL4" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BM4" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BN4" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BO4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BP4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BQ4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BR4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BS4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:71">
-      <c r="A5" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>74</v>
-      </c>
       <c r="D5" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H5" s="6">
         <v>45090</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J5" s="6">
         <v>45100</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U5" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V5" s="9">
         <v>9838234567</v>
@@ -2383,210 +2397,216 @@
         <v>1129</v>
       </c>
       <c r="Y5" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Z5" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AA5" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AB5" s="4">
         <v>123</v>
       </c>
       <c r="AC5" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD5" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AE5" s="4">
         <v>6000</v>
       </c>
       <c r="AF5" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG5" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH5" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI5" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ5" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK5" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL5" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AM5" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AN5" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AO5" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AP5" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AQ5" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AR5" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AS5" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AT5" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AU5" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AV5" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AW5" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AX5" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AY5" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AZ5" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BA5" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BB5" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="BC5" s="4">
         <v>2323</v>
       </c>
       <c r="BD5" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE5" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF5" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG5" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="BH5" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI5" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ5" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BK5" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BL5" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BM5" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BN5" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BO5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BS5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BT5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BU5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:73">
+      <c r="A6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="BE5" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="BF5" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="BG5" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="BH5" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BI5" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BJ5" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BK5" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BL5" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BM5" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BN5" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BO5" t="s">
-        <v>75</v>
-      </c>
-      <c r="BP5" t="s">
-        <v>75</v>
-      </c>
-      <c r="BQ5" t="s">
-        <v>75</v>
-      </c>
-      <c r="BR5" t="s">
-        <v>75</v>
-      </c>
-      <c r="BS5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:71">
-      <c r="A6" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>74</v>
-      </c>
       <c r="D6" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H6" s="6">
         <v>45090</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J6" s="6">
         <v>45100</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U6" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V6" s="9">
         <v>9838234567</v>
@@ -2598,210 +2618,216 @@
         <v>1129</v>
       </c>
       <c r="Y6" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Z6" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AA6" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AB6" s="4">
         <v>123</v>
       </c>
       <c r="AC6" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD6" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE6" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF6" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG6" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH6" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI6" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ6" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK6" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL6" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AM6" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AN6" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AO6" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AP6" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AQ6" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AR6" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AS6" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AT6" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AU6" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AV6" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AW6" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AX6" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AY6" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AZ6" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BA6" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BB6" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="BC6" s="4">
         <v>2323</v>
       </c>
       <c r="BD6" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE6" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF6" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG6" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="BH6" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI6" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ6" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BK6" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BL6" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BM6" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BN6" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BO6" t="s">
+        <v>76</v>
+      </c>
+      <c r="BP6" t="s">
+        <v>76</v>
+      </c>
+      <c r="BQ6" t="s">
+        <v>76</v>
+      </c>
+      <c r="BR6" t="s">
+        <v>76</v>
+      </c>
+      <c r="BS6" t="s">
+        <v>76</v>
+      </c>
+      <c r="BT6" t="s">
+        <v>76</v>
+      </c>
+      <c r="BU6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:73">
+      <c r="A7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="BE6" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="BF6" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="BG6" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="BH6" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BI6" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BJ6" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BK6" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BL6" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BM6" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BN6" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BO6" t="s">
-        <v>75</v>
-      </c>
-      <c r="BP6" t="s">
-        <v>75</v>
-      </c>
-      <c r="BQ6" t="s">
-        <v>75</v>
-      </c>
-      <c r="BR6" t="s">
-        <v>75</v>
-      </c>
-      <c r="BS6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:71">
-      <c r="A7" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>74</v>
-      </c>
       <c r="D7" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H7" s="6">
         <v>45090</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J7" s="6">
         <v>45100</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U7" s="11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V7" s="9">
         <v>9838234567</v>
@@ -2813,3005 +2839,3089 @@
         <v>1129</v>
       </c>
       <c r="Y7" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Z7" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AA7" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AB7" s="4">
         <v>123</v>
       </c>
       <c r="AC7" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD7" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AE7" s="4">
         <v>6000</v>
       </c>
       <c r="AF7" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG7" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH7" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI7" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ7" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK7" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL7" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AM7" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AN7" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AO7" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AP7" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AQ7" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AR7" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AS7" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AT7" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AU7" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AV7" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AW7" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AX7" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AY7" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AZ7" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BA7" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BB7" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="BC7" s="4">
         <v>2323</v>
       </c>
       <c r="BD7" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE7" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF7" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG7" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="BH7" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI7" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ7" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BK7" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BL7" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="BM7" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BN7" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BO7" t="s">
+        <v>76</v>
+      </c>
+      <c r="BP7" t="s">
+        <v>76</v>
+      </c>
+      <c r="BQ7" t="s">
+        <v>76</v>
+      </c>
+      <c r="BR7" t="s">
+        <v>76</v>
+      </c>
+      <c r="BS7" t="s">
+        <v>76</v>
+      </c>
+      <c r="BT7" t="s">
+        <v>76</v>
+      </c>
+      <c r="BU7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:73">
+      <c r="A8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="BE7" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="BF7" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="BG7" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="BH7" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BI7" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BJ7" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BK7" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BL7" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="BM7" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BN7" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BO7" t="s">
-        <v>75</v>
-      </c>
-      <c r="BP7" t="s">
-        <v>75</v>
-      </c>
-      <c r="BQ7" t="s">
-        <v>75</v>
-      </c>
-      <c r="BR7" t="s">
-        <v>75</v>
-      </c>
-      <c r="BS7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:71">
-      <c r="A8" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>74</v>
-      </c>
       <c r="D8" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H8" s="6">
         <v>45090</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J8" s="6">
         <v>45100</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U8" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V8" s="9">
         <v>9838234567</v>
       </c>
       <c r="W8" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X8" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y8" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z8" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA8" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB8" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC8" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD8" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE8" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF8" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG8" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH8" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI8" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ8" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK8" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL8" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AM8" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AN8" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AO8" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AP8" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AQ8" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AR8" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AS8" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AT8" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AU8" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AV8" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AW8" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AX8" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AY8" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AZ8" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BA8" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BB8" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="BC8" s="4">
         <v>2323</v>
       </c>
       <c r="BD8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE8" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF8" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG8" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="BH8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BK8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BL8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BM8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BN8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BO8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BP8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BQ8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BR8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BS8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BT8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BU8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:73">
+      <c r="A9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="BE8" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="BF8" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="BG8" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="BH8" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BI8" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BJ8" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BK8" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BL8" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BM8" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BN8" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BO8" t="s">
-        <v>75</v>
-      </c>
-      <c r="BP8" t="s">
-        <v>75</v>
-      </c>
-      <c r="BQ8" t="s">
-        <v>75</v>
-      </c>
-      <c r="BR8" t="s">
-        <v>75</v>
-      </c>
-      <c r="BS8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:71">
-      <c r="A9" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>74</v>
-      </c>
       <c r="D9" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H9" s="6">
         <v>45090</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J9" s="6">
         <v>45100</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S9" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U9" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V9" s="9">
         <v>9838234567</v>
       </c>
       <c r="W9" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X9" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y9" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z9" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA9" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB9" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC9" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD9" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE9" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF9" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG9" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH9" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI9" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ9" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK9" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL9" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AM9" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AN9" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AO9" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AP9" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AQ9" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AR9" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AS9" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AT9" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AU9" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AV9" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AW9" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AX9" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AY9" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AZ9" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BA9" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BB9" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="BC9" s="4">
         <v>2323</v>
       </c>
       <c r="BD9" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE9" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF9" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG9" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="BH9" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI9" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ9" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BK9" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BL9" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BM9" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BN9" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BO9" t="s">
+        <v>76</v>
+      </c>
+      <c r="BP9" t="s">
+        <v>76</v>
+      </c>
+      <c r="BQ9" t="s">
+        <v>76</v>
+      </c>
+      <c r="BR9" t="s">
+        <v>76</v>
+      </c>
+      <c r="BS9" t="s">
+        <v>76</v>
+      </c>
+      <c r="BT9" t="s">
+        <v>76</v>
+      </c>
+      <c r="BU9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:73">
+      <c r="A10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="BE9" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="BF9" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="BG9" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="BH9" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BI9" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BJ9" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BK9" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BL9" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BM9" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BN9" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BO9" t="s">
-        <v>75</v>
-      </c>
-      <c r="BP9" t="s">
-        <v>75</v>
-      </c>
-      <c r="BQ9" t="s">
-        <v>75</v>
-      </c>
-      <c r="BR9" t="s">
-        <v>75</v>
-      </c>
-      <c r="BS9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:71">
-      <c r="A10" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>74</v>
-      </c>
       <c r="D10" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H10" s="6">
         <v>45090</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J10" s="6">
         <v>45100</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R10" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S10" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T10" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U10" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V10" s="9">
         <v>9838234567</v>
       </c>
       <c r="W10" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X10" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y10" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z10" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA10" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB10" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC10" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD10" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE10" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF10" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG10" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH10" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI10" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ10" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK10" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL10" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AM10" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AN10" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AO10" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AP10" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AQ10" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AR10" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AS10" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AT10" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AU10" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AV10" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AW10" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AX10" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AY10" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AZ10" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BA10" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BB10" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="BC10" s="4">
         <v>2323</v>
       </c>
       <c r="BD10" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE10" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF10" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG10" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="BH10" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI10" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ10" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BK10" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BL10" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BM10" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BN10" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BO10" t="s">
+        <v>76</v>
+      </c>
+      <c r="BP10" t="s">
+        <v>76</v>
+      </c>
+      <c r="BQ10" t="s">
+        <v>76</v>
+      </c>
+      <c r="BR10" t="s">
+        <v>76</v>
+      </c>
+      <c r="BS10" t="s">
+        <v>76</v>
+      </c>
+      <c r="BT10" t="s">
+        <v>76</v>
+      </c>
+      <c r="BU10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:73">
+      <c r="A11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="BE10" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="BF10" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="BG10" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="BH10" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BI10" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BJ10" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BK10" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BL10" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BM10" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BN10" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BO10" t="s">
-        <v>75</v>
-      </c>
-      <c r="BP10" t="s">
-        <v>75</v>
-      </c>
-      <c r="BQ10" t="s">
-        <v>75</v>
-      </c>
-      <c r="BR10" t="s">
-        <v>75</v>
-      </c>
-      <c r="BS10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:71">
-      <c r="A11" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>74</v>
-      </c>
       <c r="D11" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H11" s="6">
         <v>45090</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J11" s="6">
         <v>45100</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S11" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T11" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U11" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V11" s="9">
         <v>9838234567</v>
       </c>
       <c r="W11" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X11" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y11" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z11" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA11" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB11" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC11" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD11" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE11" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF11" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG11" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH11" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI11" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ11" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK11" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL11" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AM11" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AN11" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AO11" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AP11" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AQ11" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AR11" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AS11" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AT11" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AU11" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AV11" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AW11" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AX11" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AY11" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AZ11" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BA11" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BB11" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="BC11" s="4">
         <v>2323</v>
       </c>
       <c r="BD11" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE11" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF11" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG11" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="BH11" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI11" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ11" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BK11" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BL11" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BM11" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BN11" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BO11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BP11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BQ11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BR11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BS11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BT11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BU11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:73">
+      <c r="A12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="BE11" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="BF11" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="BG11" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="BH11" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BI11" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BJ11" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BK11" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BL11" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BM11" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BN11" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BO11" t="s">
-        <v>75</v>
-      </c>
-      <c r="BP11" t="s">
-        <v>75</v>
-      </c>
-      <c r="BQ11" t="s">
-        <v>75</v>
-      </c>
-      <c r="BR11" t="s">
-        <v>75</v>
-      </c>
-      <c r="BS11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:71">
-      <c r="A12" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>74</v>
-      </c>
       <c r="D12" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R12" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S12" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T12" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U12" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V12" s="9">
         <v>9838234567</v>
       </c>
       <c r="W12" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X12" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y12" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z12" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA12" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB12" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC12" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD12" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE12" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF12" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AG12" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH12" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI12" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ12" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK12" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL12" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AM12" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AN12" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AO12" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AP12" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AQ12" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AR12" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AS12" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AT12" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AU12" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AV12" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AW12" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AX12" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AY12" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AZ12" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BA12" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BB12" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="BC12" s="4">
         <v>2323</v>
       </c>
       <c r="BD12" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BE12" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BF12" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BG12" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BH12" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BI12" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BJ12" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BK12" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BL12" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BM12" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BN12" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BO12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BP12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BQ12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BR12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BS12" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="BT12" t="s">
+        <v>76</v>
+      </c>
+      <c r="BU12" t="s">
+        <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:71">
+    <row r="13" spans="1:73">
       <c r="A13" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H13" s="4">
         <v>25</v>
       </c>
       <c r="I13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="S13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="T13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="U13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="V13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="W13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="X13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE13" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BH13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BK13" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="BL13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BM13" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="BN13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BO13" t="s">
+        <v>76</v>
+      </c>
+      <c r="BP13" t="s">
+        <v>76</v>
+      </c>
+      <c r="BQ13" t="s">
+        <v>76</v>
+      </c>
+      <c r="BR13" t="s">
+        <v>76</v>
+      </c>
+      <c r="BS13" t="s">
+        <v>76</v>
+      </c>
+      <c r="BT13" t="s">
+        <v>76</v>
+      </c>
+      <c r="BU13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:73">
+      <c r="A14" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="J13" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="N13" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="O13" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="P13" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q13" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="R13" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="S13" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="T13" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="U13" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="V13" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="W13" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="X13" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y13" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z13" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA13" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB13" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC13" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD13" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE13" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF13" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AG13" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AH13" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AI13" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AJ13" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AK13" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AL13" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AM13" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AN13" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AO13" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AP13" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AQ13" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AR13" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AS13" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AT13" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AU13" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AV13" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AW13" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AX13" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AY13" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AZ13" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BA13" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BB13" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BC13" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BD13" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BE13" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="BF13" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BG13" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BH13" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BI13" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BJ13" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BK13" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="BL13" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BM13" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="BN13" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BO13" t="s">
-        <v>75</v>
-      </c>
-      <c r="BP13" t="s">
-        <v>75</v>
-      </c>
-      <c r="BQ13" t="s">
-        <v>75</v>
-      </c>
-      <c r="BR13" t="s">
-        <v>75</v>
-      </c>
-      <c r="BS13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:71">
-      <c r="A14" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>74</v>
-      </c>
       <c r="D14" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H14" s="6">
         <v>45090</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J14" s="6">
         <v>45100</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q14" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R14" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S14" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T14" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U14" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V14" s="9">
         <v>9838234567</v>
       </c>
       <c r="W14" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X14" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y14" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z14" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA14" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB14" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC14" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD14" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE14" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF14" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG14" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH14" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI14" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ14" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK14" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL14" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AM14" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AN14" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AO14" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AP14" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AQ14" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AR14" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AS14" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AT14" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AU14" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AV14" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AW14" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AX14" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AY14" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AZ14" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BA14" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BB14" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="BC14" s="4">
         <v>2323</v>
       </c>
       <c r="BD14" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE14" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF14" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG14" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="BH14" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI14" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ14" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BK14" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BL14" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BM14" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BN14" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="BO14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BP14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BQ14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BR14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BS14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BT14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BU14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:73">
+      <c r="A15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="BE14" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="BF14" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="BG14" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="BH14" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BI14" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BJ14" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BK14" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BL14" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BM14" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BN14" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="BO14" t="s">
-        <v>75</v>
-      </c>
-      <c r="BP14" t="s">
-        <v>75</v>
-      </c>
-      <c r="BQ14" t="s">
-        <v>75</v>
-      </c>
-      <c r="BR14" t="s">
-        <v>75</v>
-      </c>
-      <c r="BS14" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:71">
-      <c r="A15" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>74</v>
-      </c>
       <c r="D15" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R15" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S15" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T15" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U15" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V15" s="9">
         <v>9838234567</v>
       </c>
       <c r="W15" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X15" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y15" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z15" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA15" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB15" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC15" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD15" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE15" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF15" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG15" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH15" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI15" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ15" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK15" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL15" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AM15" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AN15" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AO15" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AP15" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AQ15" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AR15" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AS15" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AT15" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AU15" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AV15" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AW15" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AX15" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AY15" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AZ15" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BA15" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BB15" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="BC15" s="4">
         <v>2323</v>
       </c>
       <c r="BD15" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE15" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF15" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG15" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="BH15" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI15" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ15" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BK15" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BL15" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BM15" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BN15" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BO15" t="s">
+        <v>76</v>
+      </c>
+      <c r="BP15" t="s">
+        <v>76</v>
+      </c>
+      <c r="BQ15" t="s">
+        <v>76</v>
+      </c>
+      <c r="BR15" t="s">
+        <v>76</v>
+      </c>
+      <c r="BS15" t="s">
+        <v>76</v>
+      </c>
+      <c r="BT15" t="s">
+        <v>76</v>
+      </c>
+      <c r="BU15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:73">
+      <c r="A16" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="BE15" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="BF15" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="BG15" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="BH15" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BI15" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BJ15" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BK15" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BL15" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BM15" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BN15" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BO15" t="s">
-        <v>75</v>
-      </c>
-      <c r="BP15" t="s">
-        <v>75</v>
-      </c>
-      <c r="BQ15" t="s">
-        <v>75</v>
-      </c>
-      <c r="BR15" t="s">
-        <v>75</v>
-      </c>
-      <c r="BS15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:71">
-      <c r="A16" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B16" s="4" t="s">
+      <c r="D16" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>108</v>
-      </c>
       <c r="G16" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H16" s="6">
         <v>45090</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J16" s="6">
         <v>45100</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P16" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q16" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R16" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S16" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T16" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U16" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V16" s="9">
         <v>9838234567</v>
       </c>
       <c r="W16" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X16" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y16" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z16" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA16" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB16" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC16" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD16" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE16" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF16" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG16" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH16" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI16" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ16" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK16" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL16" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="AM16" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN16" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO16" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP16" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ16" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR16" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS16" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT16" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU16" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV16" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW16" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX16" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY16" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ16" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA16" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB16" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="AM16" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AN16" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AO16" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AP16" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AQ16" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AR16" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AS16" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AT16" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AU16" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AV16" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AW16" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AX16" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AY16" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AZ16" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BA16" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BB16" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="BC16" s="4">
         <v>2323</v>
       </c>
       <c r="BD16" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE16" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF16" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG16" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="BH16" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI16" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ16" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BK16" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BL16" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BM16" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BN16" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BO16" t="s">
+        <v>76</v>
+      </c>
+      <c r="BP16" t="s">
+        <v>76</v>
+      </c>
+      <c r="BQ16" t="s">
+        <v>76</v>
+      </c>
+      <c r="BR16" t="s">
+        <v>76</v>
+      </c>
+      <c r="BS16" t="s">
+        <v>76</v>
+      </c>
+      <c r="BT16" t="s">
+        <v>76</v>
+      </c>
+      <c r="BU16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:73">
+      <c r="A17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="BE16" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="BF16" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="BG16" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="BH16" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BI16" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BJ16" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BK16" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BL16" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BM16" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BN16" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BO16" t="s">
-        <v>75</v>
-      </c>
-      <c r="BP16" t="s">
-        <v>75</v>
-      </c>
-      <c r="BQ16" t="s">
-        <v>75</v>
-      </c>
-      <c r="BR16" t="s">
-        <v>75</v>
-      </c>
-      <c r="BS16" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:71">
-      <c r="A17" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>74</v>
-      </c>
       <c r="D17" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P17" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q17" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R17" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S17" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T17" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U17" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V17" s="9">
         <v>9838234567</v>
       </c>
       <c r="W17" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="X17" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y17" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z17" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA17" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB17" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC17" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD17" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE17" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF17" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG17" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH17" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI17" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ17" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK17" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL17" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM17" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN17" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO17" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP17" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ17" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR17" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS17" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT17" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU17" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV17" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW17" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX17" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY17" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ17" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA17" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB17" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC17" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD17" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE17" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF17" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG17" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="BH17" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI17" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ17" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BK17" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BL17" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BM17" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="BN17" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BO17" t="s">
+        <v>76</v>
+      </c>
+      <c r="BP17" t="s">
+        <v>76</v>
+      </c>
+      <c r="BQ17" t="s">
+        <v>76</v>
+      </c>
+      <c r="BR17" t="s">
+        <v>76</v>
+      </c>
+      <c r="BS17" t="s">
+        <v>76</v>
+      </c>
+      <c r="BT17" t="s">
+        <v>76</v>
+      </c>
+      <c r="BU17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:73">
+      <c r="A18" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="X17" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y17" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z17" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA17" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB17" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC17" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD17" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE17" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF17" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AG17" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AH17" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AI17" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AJ17" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AK17" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AL17" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AM17" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AN17" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AO17" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AP17" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AQ17" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AR17" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AS17" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AT17" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AU17" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AV17" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AW17" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AX17" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AY17" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AZ17" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BA17" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BB17" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BC17" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BD17" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BE17" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="BF17" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="BG17" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="BH17" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BI17" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BJ17" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BK17" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BL17" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BM17" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="BN17" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BO17" t="s">
-        <v>75</v>
-      </c>
-      <c r="BP17" t="s">
-        <v>75</v>
-      </c>
-      <c r="BQ17" t="s">
-        <v>75</v>
-      </c>
-      <c r="BR17" t="s">
-        <v>75</v>
-      </c>
-      <c r="BS17" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:71">
-      <c r="A18" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B18" t="s">
-        <v>111</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>74</v>
-      </c>
       <c r="D18" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P18" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q18" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R18" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S18" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T18" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U18" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V18" s="9">
         <v>9838234567</v>
       </c>
       <c r="W18" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X18" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y18" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z18" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA18" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB18" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC18" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD18" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE18" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF18" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG18" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH18" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI18" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ18" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK18" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL18" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AM18" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AN18" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AO18" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AP18" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AQ18" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AR18" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AS18" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AT18" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AU18" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AV18" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AW18" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AX18" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AY18" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AZ18" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BA18" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BB18" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="BC18" s="4">
         <v>2323</v>
       </c>
       <c r="BD18" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE18" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF18" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG18" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="BH18" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI18" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ18" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BK18" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BL18" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BM18" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BN18" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BO18" t="s">
+        <v>83</v>
+      </c>
+      <c r="BP18" t="s">
+        <v>76</v>
+      </c>
+      <c r="BQ18" t="s">
+        <v>76</v>
+      </c>
+      <c r="BR18" t="s">
+        <v>76</v>
+      </c>
+      <c r="BS18" t="s">
+        <v>76</v>
+      </c>
+      <c r="BT18" t="s">
+        <v>76</v>
+      </c>
+      <c r="BU18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:73">
+      <c r="A19" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="BE18" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="BF18" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="BG18" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="BH18" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BI18" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BJ18" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BK18" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BL18" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BM18" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BN18" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BO18" t="s">
-        <v>82</v>
-      </c>
-      <c r="BP18" t="s">
-        <v>75</v>
-      </c>
-      <c r="BQ18" t="s">
-        <v>75</v>
-      </c>
-      <c r="BR18" t="s">
-        <v>75</v>
-      </c>
-      <c r="BS18" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:71">
-      <c r="A19" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B19" t="s">
-        <v>112</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>74</v>
-      </c>
       <c r="D19" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P19" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q19" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R19" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S19" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T19" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U19" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V19" s="9">
         <v>9838234567</v>
       </c>
       <c r="W19" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X19" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y19" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z19" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA19" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB19" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC19" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD19" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE19" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF19" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG19" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH19" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI19" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ19" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK19" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL19" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AM19" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AN19" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AO19" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AP19" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AQ19" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AR19" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AS19" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AT19" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AU19" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AV19" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AW19" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AX19" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AY19" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AZ19" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BA19" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BB19" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="BC19" s="4">
         <v>2323</v>
       </c>
       <c r="BD19" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE19" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF19" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG19" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="BH19" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI19" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ19" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BK19" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BL19" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BM19" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BN19" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BO19" t="s">
+        <v>83</v>
+      </c>
+      <c r="BP19" t="s">
+        <v>76</v>
+      </c>
+      <c r="BQ19" t="s">
+        <v>76</v>
+      </c>
+      <c r="BR19" t="s">
+        <v>76</v>
+      </c>
+      <c r="BS19" t="s">
+        <v>76</v>
+      </c>
+      <c r="BT19" t="s">
+        <v>76</v>
+      </c>
+      <c r="BU19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:73">
+      <c r="A20" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="BE19" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="BF19" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="BG19" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="BH19" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BI19" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BJ19" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BK19" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BL19" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BM19" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BN19" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BO19" t="s">
-        <v>82</v>
-      </c>
-      <c r="BP19" t="s">
-        <v>75</v>
-      </c>
-      <c r="BQ19" t="s">
-        <v>75</v>
-      </c>
-      <c r="BR19" t="s">
-        <v>75</v>
-      </c>
-      <c r="BS19" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:71">
-      <c r="A20" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>74</v>
-      </c>
       <c r="D20" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M20" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N20" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O20" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P20" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q20" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R20" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S20" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T20" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U20" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V20" s="8">
         <v>9838234567</v>
       </c>
       <c r="W20" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X20" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y20" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z20" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA20" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB20" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC20" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD20" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE20" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF20" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AG20" s="8">
         <v>38298026</v>
       </c>
       <c r="AH20" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI20" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ20" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK20" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL20" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AM20" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AN20" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AO20" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AP20" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AQ20" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AR20" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AS20" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AT20" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AU20" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AV20" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AW20" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AX20" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AY20" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AZ20" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BA20" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BB20" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="BC20" s="4">
         <v>2323</v>
       </c>
       <c r="BD20" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE20" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF20" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG20" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="BH20" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI20" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ20" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BK20" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BL20" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BM20" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BN20" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BO20" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BP20" t="s">
+        <v>76</v>
+      </c>
+      <c r="BQ20" t="s">
+        <v>76</v>
+      </c>
+      <c r="BR20" t="s">
+        <v>76</v>
+      </c>
+      <c r="BS20" t="s">
+        <v>76</v>
+      </c>
+      <c r="BT20" t="s">
+        <v>76</v>
+      </c>
+      <c r="BU20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:73">
+      <c r="A21" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="BE20" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="BF20" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="BG20" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="BH20" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="BI20" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="BJ20" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="BK20" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="BL20" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BM20" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BN20" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BO20" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BP20" t="s">
-        <v>75</v>
-      </c>
-      <c r="BQ20" t="s">
-        <v>75</v>
-      </c>
-      <c r="BR20" t="s">
-        <v>75</v>
-      </c>
-      <c r="BS20" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:71">
-      <c r="A21" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>74</v>
-      </c>
       <c r="D21" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H21" s="6">
         <v>45090</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J21" s="6">
         <v>45100</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N21" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O21" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P21" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q21" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R21" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="S21" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T21" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U21" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V21" s="8">
         <v>9838234567</v>
@@ -5823,145 +5933,151 @@
         <v>1129</v>
       </c>
       <c r="Y21" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Z21" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AA21" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AB21" s="8">
         <v>123</v>
       </c>
       <c r="AC21" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD21" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AE21" s="8">
         <v>6000</v>
       </c>
       <c r="AF21" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG21" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH21" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI21" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ21" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK21" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL21" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="AM21" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN21" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO21" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP21" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ21" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR21" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS21" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT21" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU21" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV21" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW21" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX21" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY21" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ21" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA21" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB21" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="AM21" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="AN21" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="AO21" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="AP21" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="AQ21" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="AR21" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="AS21" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="AT21" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="AU21" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="AV21" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="AW21" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="AX21" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="AY21" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="AZ21" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="BA21" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="BB21" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="BC21" s="4">
         <v>2323</v>
       </c>
       <c r="BD21" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BE21" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BF21" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BG21" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BH21" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BI21" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BJ21" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BK21" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BL21" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BM21" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BN21" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BO21" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BP21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BQ21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BR21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BS21" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="BT21" t="s">
+        <v>76</v>
+      </c>
+      <c r="BU21" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="22:22">
@@ -6019,10 +6135,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
@@ -6171,160 +6287,160 @@
     </row>
     <row r="2" spans="2:53">
       <c r="B2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V2">
         <v>9838234567</v>
       </c>
       <c r="W2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AM2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AN2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AO2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AP2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AQ2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AR2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AS2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AT2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AU2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AV2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AW2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AX2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AY2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AZ2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BA2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
